--- a/data/关西赏樱8日自由行.xlsx
+++ b/data/关西赏樱8日自由行.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="15480" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="title" sheetId="20" r:id="rId1"/>
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">schedule!$A$1:$S$16</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="894">
   <si>
     <t>饮食推荐</t>
     <phoneticPr fontId="3"/>
@@ -4240,14 +4240,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>第一次来日本不知道如何乘坐电车可以参考
-[日本的铁路系统有哪些公司经营](http://www.zhidequ.com:8080/qa/jp-000001)
-[日本铁路交通如何购票](http://www.zhidequ.com:8080/qa/jp-000002)
-[如何知道去要去的站需要多少钱](http://www.zhidequ.com:8080/qa/jp-000184)
-[坐哪些车需要另外付钱](http://www.zhidequ.com:8080/qa/jp-0000186)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>神户</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -4545,10 +4537,6 @@
   </si>
   <si>
     <t>有</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>くっるぎ家</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -5771,10 +5759,6 @@
   </si>
   <si>
     <t>西本愿寺</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>京都车站可以拿到京都的游览图，可以参照[哪里拿京都游览图](http://www.zhidequ.com:8080/qa/JP-0000023)。如果第一天没有买京都bus一日券，也可以先在在这个地方买（请注意：_今天不使用_）</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -9048,50 +9032,6 @@
   </si>
   <si>
     <r>
-      <t>今天是本次行程的最后一个整天，所以以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="FangSong"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>购物为主，顺路参观大阪的几个樱花景点。如果方便建议带个拉杆箱，这样买的东西可以不用提着或背着，节省战斗力。可以参照</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="FangSong"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>去日本旅游带背包还是箱子]((http://www.zhidequ.com:8080/qa/JP-0000012)。因为难波在前边已经去过，今天的购物以梅田商业区为主。另外将去天神桥筋商店街感受一下传统大阪的购物环境。</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>虽然日本国花并不是樱花（详见[日本的国花是樱花吗](http://www.zhidequ.com:8080/qa/JP-0000015)）因为樱花从开放到凋谢只有1周左右的时间，所以赏樱游有非常强的时间局限性。日本的樱花自古世界闻名，而关西地区因为是古代日本最繁华的地区，所以留下来的赏樱名所为全日本之冠。关西地区各地的樱花开放也会有一些前后顺序，因为樱花开放时间每年受天气影响都会有变化，观樱花地点多有利于根据当时情况调整行程，这也是推荐关西看樱花的一个原因。虽然关西不是一个十分科学的说法，但因为中国人叫惯了，我们依然沿用。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>梅田是大阪的中转中心，在这里转车的时候，顺便到阪急得窗口买了有马六甲一日券（购买阪急基本版，2500日元），到绿色窗口买了岚山小火车（トロッコ）的票（这个小火车樱花季很抢手，不提前买的话很有可能没座位了，不过也有站票）。具体可以参照[乘坐岚山小火车的问题](http://www.zhidequ.com:8080/qa/JP-0000022)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
       <t>1.</t>
     </r>
     <r>
@@ -9504,12 +9444,68 @@
   <si>
     <t>zhiedequ-oosaka-8</t>
   </si>
+  <si>
+    <t>虽然日本国花并不是樱花（详见[日本的国花是樱花吗](http://www.zhidequ.com:8080/qa/JP-000015)）因为樱花从开放到凋谢只有1周左右的时间，所以赏樱游有非常强的时间局限性。日本的樱花自古世界闻名，而关西地区因为是古代日本最繁华的地区，所以留下来的赏樱名所为全日本之冠。关西地区各地的樱花开放也会有一些前后顺序，因为樱花开放时间每年受天气影响都会有变化，观樱花地点多有利于根据当时情况调整行程，这也是推荐关西看樱花的一个原因。虽然关西不是一个十分科学的说法，但因为中国人叫惯了，我们依然沿用。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>梅田是大阪的中转中心，在这里转车的时候，顺便到阪急得窗口买了有马六甲一日券（购买阪急基本版，2500日元），到绿色窗口买了岚山小火车（トロッコ）的票（这个小火车樱花季很抢手，不提前买的话很有可能没座位了，不过也有站票）。具体可以参照[乘坐岚山小火车的问题](http://www.zhidequ.com:8080/qa/JP-000022)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>第一次来日本不知道如何乘坐电车可以参考
+[日本的铁路系统有哪些公司经营](http://www.zhidequ.com:8080/qa/jp-000001)
+[日本铁路交通如何购票](http://www.zhidequ.com:8080/qa/jp-000002)
+[如何知道去要去的站需要多少钱](http://www.zhidequ.com:8080/qa/jp-000184)
+[坐哪些车需要另外付钱](http://www.zhidequ.com:8080/qa/jp-000186)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>京都车站可以拿到京都的游览图，可以参照[哪里拿京都游览图](http://www.zhidequ.com:8080/qa/JP-000023)。如果第一天没有买京都bus一日券，也可以先在在这个地方买（请注意：_今天不使用_）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>今天是本次行程的最后一个整天，所以以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>购物为主，顺路参观大阪的几个樱花景点。如果方便建议带个拉杆箱，这样买的东西可以不用提着或背着，节省战斗力。可以参照</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>去日本旅游带背包还是箱子]((http://www.zhidequ.com:8080/qa/JP-000012)。因为难波在前边已经去过，今天的购物以梅田商业区为主。另外将去天神桥筋商店街感受一下传统大阪的购物环境。</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="67" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="67">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -9817,7 +9813,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <scheme val="minor"/>
     </font>
@@ -9831,7 +9827,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -9845,7 +9841,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <scheme val="minor"/>
     </font>
@@ -9868,7 +9864,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -10457,6 +10453,7 @@
     </xf>
     <xf numFmtId="0" fontId="66" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="49" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -10484,17 +10481,16 @@
     <xf numFmtId="0" fontId="49" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
+    <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超级链接" xfId="2" builtinId="8"/>
-    <cellStyle name="随超级链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="随超级链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="随超级链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="随超级链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="随超级链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="7" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -10883,7 +10879,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -10927,7 +10923,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -10948,56 +10944,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14">
+    <row r="1" spans="1:5">
       <c r="A1" s="116" t="s">
         <v>335</v>
       </c>
       <c r="B1" s="116" t="s">
+        <v>875</v>
+      </c>
+      <c r="C1" s="116" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1" s="116" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1" s="118" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="117" t="s">
+        <v>879</v>
+      </c>
+      <c r="B2" s="117" t="s">
+        <v>880</v>
+      </c>
+      <c r="C2" s="117" t="s">
         <v>881</v>
       </c>
-      <c r="C1" s="116" t="s">
-        <v>882</v>
-      </c>
-      <c r="D1" s="116" t="s">
-        <v>883</v>
-      </c>
-      <c r="E1" s="127" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14">
-      <c r="A2" s="117" t="s">
-        <v>885</v>
-      </c>
-      <c r="B2" s="117" t="s">
-        <v>886</v>
-      </c>
-      <c r="C2" s="117" t="s">
-        <v>887</v>
-      </c>
       <c r="D2" s="117" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="E2" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -11008,22 +11005,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="65.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="48.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="65.75" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
+    <col min="5" max="5" width="48.625" customWidth="1"/>
+    <col min="6" max="6" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="84">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="95.25">
       <c r="A1" s="19" t="s">
         <v>341</v>
       </c>
@@ -11035,7 +11032,7 @@
       </c>
       <c r="E1" s="21"/>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" ht="91">
+    <row r="2" spans="1:6" s="9" customFormat="1" ht="96">
       <c r="A2" s="19" t="s">
         <v>341</v>
       </c>
@@ -11047,7 +11044,7 @@
       </c>
       <c r="E2" s="21"/>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" ht="70">
+    <row r="3" spans="1:6" s="9" customFormat="1" ht="95.25">
       <c r="A3" s="19" t="s">
         <v>341</v>
       </c>
@@ -11059,7 +11056,7 @@
       </c>
       <c r="E3" s="21"/>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" ht="28">
+    <row r="4" spans="1:6" s="9" customFormat="1" ht="27.75">
       <c r="A4" s="19" t="s">
         <v>341</v>
       </c>
@@ -11071,7 +11068,7 @@
       </c>
       <c r="E4" s="21"/>
     </row>
-    <row r="5" spans="1:6" s="9" customFormat="1" ht="14">
+    <row r="5" spans="1:6" s="9" customFormat="1">
       <c r="A5" s="19" t="s">
         <v>343</v>
       </c>
@@ -11088,7 +11085,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" ht="29">
+    <row r="6" spans="1:6" s="9" customFormat="1" ht="27.75">
       <c r="A6" s="19" t="s">
         <v>342</v>
       </c>
@@ -11102,7 +11099,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="9" customFormat="1" ht="28">
+    <row r="7" spans="1:6" s="9" customFormat="1" ht="27">
       <c r="A7" s="19" t="s">
         <v>342</v>
       </c>
@@ -11116,7 +11113,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="9" customFormat="1" ht="28">
+    <row r="8" spans="1:6" s="9" customFormat="1" ht="40.5">
       <c r="A8" s="19" t="s">
         <v>342</v>
       </c>
@@ -11130,7 +11127,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" ht="43">
+    <row r="9" spans="1:6" s="9" customFormat="1" ht="41.25">
       <c r="A9" s="19" t="s">
         <v>342</v>
       </c>
@@ -11150,7 +11147,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" ht="29">
+    <row r="10" spans="1:6" s="9" customFormat="1" ht="28.5">
       <c r="A10" s="19" t="s">
         <v>342</v>
       </c>
@@ -11170,7 +11167,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" ht="28">
+    <row r="11" spans="1:6" s="9" customFormat="1" ht="40.5">
       <c r="A11" s="19" t="s">
         <v>342</v>
       </c>
@@ -11184,13 +11181,13 @@
         <v>151</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F11" s="54" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" ht="17">
+    <row r="12" spans="1:6" s="9" customFormat="1">
       <c r="A12" s="19" t="s">
         <v>342</v>
       </c>
@@ -11210,7 +11207,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" ht="43">
+    <row r="13" spans="1:6" s="9" customFormat="1" ht="27.75">
       <c r="A13" s="19" t="s">
         <v>342</v>
       </c>
@@ -11230,7 +11227,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" ht="17">
+    <row r="14" spans="1:6" s="9" customFormat="1">
       <c r="A14" s="19" t="s">
         <v>342</v>
       </c>
@@ -11241,13 +11238,13 @@
         <v>303</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="E14" s="112" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" ht="14">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="9" customFormat="1">
       <c r="A15" s="19" t="s">
         <v>342</v>
       </c>
@@ -11259,7 +11256,7 @@
       </c>
       <c r="E15" s="21"/>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="28">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="27.75">
       <c r="A16" s="19" t="s">
         <v>342</v>
       </c>
@@ -11272,7 +11269,7 @@
       <c r="D16" s="38"/>
       <c r="E16" s="21"/>
     </row>
-    <row r="17" spans="1:5" s="9" customFormat="1" ht="56">
+    <row r="17" spans="1:5" s="9" customFormat="1" ht="54.75">
       <c r="A17" s="19" t="s">
         <v>342</v>
       </c>
@@ -11284,7 +11281,7 @@
       </c>
       <c r="E17" s="21"/>
     </row>
-    <row r="18" spans="1:5" ht="14">
+    <row r="18" spans="1:5">
       <c r="A18" s="19"/>
     </row>
   </sheetData>
@@ -11299,25 +11296,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="17">
+    <row r="2" spans="1:7">
       <c r="A2" s="44" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17">
+    <row r="3" spans="1:7">
       <c r="A3" s="13" t="s">
         <v>123</v>
       </c>
@@ -11340,7 +11337,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17">
+    <row r="4" spans="1:7">
       <c r="A4" s="10" t="s">
         <v>26</v>
       </c>
@@ -11355,7 +11352,7 @@
       </c>
       <c r="G4" s="28"/>
     </row>
-    <row r="5" spans="1:7" ht="17">
+    <row r="5" spans="1:7">
       <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
@@ -11372,7 +11369,7 @@
       </c>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="1:7" ht="17">
+    <row r="6" spans="1:7">
       <c r="A6" s="10" t="s">
         <v>27</v>
       </c>
@@ -11387,7 +11384,7 @@
       </c>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:7" ht="17">
+    <row r="7" spans="1:7">
       <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
@@ -11402,7 +11399,7 @@
       </c>
       <c r="G7" s="28"/>
     </row>
-    <row r="8" spans="1:7" ht="17">
+    <row r="8" spans="1:7">
       <c r="A8" s="10" t="s">
         <v>29</v>
       </c>
@@ -11419,7 +11416,7 @@
       </c>
       <c r="G8" s="28"/>
     </row>
-    <row r="9" spans="1:7" ht="17">
+    <row r="9" spans="1:7">
       <c r="A9" s="10" t="s">
         <v>31</v>
       </c>
@@ -11446,16 +11443,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="17">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>310</v>
       </c>
@@ -11465,82 +11462,82 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="17">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="17">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="17">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="17">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="17">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="17">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="17">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="17">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="17">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="17">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="17">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="17">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="17">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="17">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="17">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="17">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>327</v>
       </c>
@@ -11550,12 +11547,12 @@
         <v>328</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="17">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="17">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>330</v>
       </c>
@@ -11572,24 +11569,24 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="70"/>
-    <col min="2" max="2" width="11.5703125" style="70" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="70" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="70" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="70" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="70" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.42578125" style="70" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.375" style="70" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20">
+    <row r="1" spans="1:6" ht="17.25">
       <c r="A1" s="75" t="s">
         <v>297</v>
       </c>
@@ -11610,18 +11607,18 @@
       <c r="E2" s="72"/>
       <c r="F2" s="72"/>
     </row>
-    <row r="3" spans="1:6" ht="18">
+    <row r="3" spans="1:6">
       <c r="B3" s="82" t="s">
         <v>298</v>
       </c>
       <c r="C3" s="78"/>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="119" t="s">
         <v>233</v>
       </c>
-      <c r="E3" s="118"/>
+      <c r="E3" s="119"/>
       <c r="F3" s="72"/>
     </row>
-    <row r="4" spans="1:6" ht="30">
+    <row r="4" spans="1:6" ht="28.5">
       <c r="B4" s="82" t="s">
         <v>299</v>
       </c>
@@ -11696,18 +11693,18 @@
       </c>
       <c r="F8" s="72"/>
     </row>
-    <row r="10" spans="1:6" ht="18">
+    <row r="10" spans="1:6">
       <c r="B10" s="82" t="s">
         <v>241</v>
       </c>
       <c r="C10" s="82"/>
-      <c r="D10" s="119" t="s">
+      <c r="D10" s="120" t="s">
         <v>300</v>
       </c>
-      <c r="E10" s="120"/>
-      <c r="F10" s="121"/>
-    </row>
-    <row r="11" spans="1:6" ht="18">
+      <c r="E10" s="121"/>
+      <c r="F10" s="122"/>
+    </row>
+    <row r="11" spans="1:6" ht="30">
       <c r="B11" s="82" t="s">
         <v>299</v>
       </c>
@@ -11843,7 +11840,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="75">
+    <row r="19" spans="1:8" ht="85.5">
       <c r="B19" s="77" t="s">
         <v>237</v>
       </c>
@@ -11996,7 +11993,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="90">
+    <row r="28" spans="1:8" ht="85.5">
       <c r="B28" s="77" t="s">
         <v>240</v>
       </c>
@@ -12051,7 +12048,7 @@
       <c r="G32" s="72"/>
       <c r="H32" s="72"/>
     </row>
-    <row r="34" spans="1:8" ht="18">
+    <row r="34" spans="1:8">
       <c r="A34" s="74" t="s">
         <v>296</v>
       </c>
@@ -12063,19 +12060,19 @@
       <c r="H34" s="72"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1">
-      <c r="B35" s="122" t="s">
+      <c r="B35" s="123" t="s">
         <v>264</v>
       </c>
-      <c r="C35" s="124" t="s">
+      <c r="C35" s="125" t="s">
         <v>265</v>
       </c>
-      <c r="D35" s="125"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125"/>
-      <c r="G35" s="126"/>
-    </row>
-    <row r="36" spans="1:8" ht="45">
-      <c r="B36" s="123"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="126"/>
+      <c r="G35" s="127"/>
+    </row>
+    <row r="36" spans="1:8" ht="57">
+      <c r="B36" s="124"/>
       <c r="C36" s="78" t="s">
         <v>266</v>
       </c>
@@ -12092,7 +12089,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="45">
+    <row r="37" spans="1:8" ht="42.75">
       <c r="B37" s="80" t="s">
         <v>271</v>
       </c>
@@ -12112,7 +12109,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="30">
+    <row r="38" spans="1:8" ht="28.5">
       <c r="B38" s="80" t="s">
         <v>272</v>
       </c>
@@ -12132,7 +12129,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="30">
+    <row r="39" spans="1:8" ht="28.5">
       <c r="B39" s="80" t="s">
         <v>273</v>
       </c>
@@ -12152,7 +12149,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="30">
+    <row r="40" spans="1:8" ht="28.5">
       <c r="B40" s="80" t="s">
         <v>275</v>
       </c>
@@ -12172,7 +12169,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="30">
+    <row r="41" spans="1:8" ht="28.5">
       <c r="B41" s="80" t="s">
         <v>276</v>
       </c>
@@ -12212,7 +12209,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="45">
+    <row r="43" spans="1:8" ht="57">
       <c r="B43" s="80" t="s">
         <v>278</v>
       </c>
@@ -12232,7 +12229,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="60">
+    <row r="44" spans="1:8" ht="57">
       <c r="B44" s="80" t="s">
         <v>279</v>
       </c>
@@ -12246,7 +12243,7 @@
       <c r="F44" s="80"/>
       <c r="G44" s="80"/>
     </row>
-    <row r="45" spans="1:8" ht="30">
+    <row r="45" spans="1:8" ht="28.5">
       <c r="B45" s="80" t="s">
         <v>281</v>
       </c>
@@ -12286,7 +12283,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="60">
+    <row r="47" spans="1:8" ht="57">
       <c r="B47" s="80" t="s">
         <v>283</v>
       </c>
@@ -12306,7 +12303,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="75">
+    <row r="48" spans="1:8" ht="71.25">
       <c r="B48" s="80" t="s">
         <v>284</v>
       </c>
@@ -12326,7 +12323,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="49" spans="2:7" ht="60">
+    <row r="49" spans="2:7" ht="85.5">
       <c r="B49" s="80" t="s">
         <v>285</v>
       </c>
@@ -12346,7 +12343,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="50" spans="2:7" ht="45">
+    <row r="50" spans="2:7" ht="42.75">
       <c r="B50" s="80" t="s">
         <v>286</v>
       </c>
@@ -12366,7 +12363,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="51" spans="2:7" ht="60">
+    <row r="51" spans="2:7" ht="71.25">
       <c r="B51" s="80" t="s">
         <v>287</v>
       </c>
@@ -12406,7 +12403,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="2:7" ht="75">
+    <row r="53" spans="2:7" ht="57">
       <c r="B53" s="80" t="s">
         <v>290</v>
       </c>
@@ -12446,7 +12443,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="55" spans="2:7" ht="30">
+    <row r="55" spans="2:7" ht="28.5">
       <c r="B55" s="80" t="s">
         <v>292</v>
       </c>
@@ -12486,7 +12483,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="57" spans="2:7" ht="45">
+    <row r="57" spans="2:7" ht="42.75">
       <c r="B57" s="80" t="s">
         <v>294</v>
       </c>
@@ -12524,28 +12521,28 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="116" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="17">
+    <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
         <v>181</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3" ht="17">
+    <row r="3" spans="1:3">
       <c r="A3" s="13" t="s">
         <v>54</v>
       </c>
@@ -12556,7 +12553,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17">
+    <row r="4" spans="1:3">
       <c r="A4" s="11" t="s">
         <v>35</v>
       </c>
@@ -12567,7 +12564,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="29">
+    <row r="5" spans="1:3" ht="27.75">
       <c r="A5" s="11" t="s">
         <v>35</v>
       </c>
@@ -12578,7 +12575,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17">
+    <row r="6" spans="1:3">
       <c r="A6" s="11" t="s">
         <v>35</v>
       </c>
@@ -12589,7 +12586,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="27">
+    <row r="7" spans="1:3" ht="28.5">
       <c r="A7" s="11" t="s">
         <v>42</v>
       </c>
@@ -12600,7 +12597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17">
+    <row r="8" spans="1:3" ht="27.75">
       <c r="A8" s="10" t="s">
         <v>44</v>
       </c>
@@ -12611,7 +12608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="29">
+    <row r="9" spans="1:3" ht="28.5">
       <c r="A9" s="10" t="s">
         <v>46</v>
       </c>
@@ -12622,7 +12619,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17">
+    <row r="10" spans="1:3">
       <c r="A10" s="11" t="s">
         <v>146</v>
       </c>
@@ -12644,7 +12641,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="27">
+    <row r="12" spans="1:3" ht="28.5">
       <c r="A12" s="11" t="s">
         <v>59</v>
       </c>
@@ -12655,7 +12652,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17">
+    <row r="13" spans="1:3">
       <c r="A13" s="11" t="s">
         <v>62</v>
       </c>
@@ -12678,25 +12675,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="89.140625" customWidth="1"/>
+    <col min="2" max="2" width="89.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:249" ht="70">
+    <row r="1" spans="1:249" ht="81">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>876</v>
+        <v>889</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -12946,12 +12943,12 @@
       <c r="IN1" s="1"/>
       <c r="IO1" s="1"/>
     </row>
-    <row r="2" spans="1:249" ht="42">
+    <row r="2" spans="1:249" ht="40.5">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -13201,12 +13198,12 @@
       <c r="IN2" s="1"/>
       <c r="IO2" s="1"/>
     </row>
-    <row r="3" spans="1:249" ht="112">
+    <row r="3" spans="1:249" ht="121.5">
       <c r="A3" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -13456,12 +13453,12 @@
       <c r="IN3" s="1"/>
       <c r="IO3" s="1"/>
     </row>
-    <row r="4" spans="1:249" ht="98">
+    <row r="4" spans="1:249" ht="108">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -13723,20 +13720,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IR98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="96" style="5" customWidth="1"/>
-    <col min="4" max="5" width="7.5703125" style="1" customWidth="1"/>
-    <col min="6" max="252" width="10.28515625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="7.625" style="1" customWidth="1"/>
+    <col min="6" max="252" width="10.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -13753,7 +13750,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="56">
+    <row r="2" spans="1:4" ht="54">
       <c r="A2" s="66" t="s">
         <v>18</v>
       </c>
@@ -13761,13 +13758,13 @@
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="56">
+    <row r="3" spans="1:4" ht="67.5">
       <c r="A3" s="66" t="s">
         <v>18</v>
       </c>
@@ -13775,13 +13772,13 @@
         <v>224</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="56">
+    <row r="4" spans="1:4" ht="67.5">
       <c r="A4" s="66" t="s">
         <v>18</v>
       </c>
@@ -13795,29 +13792,29 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="56">
+    <row r="5" spans="1:4" ht="67.5">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="56">
+    <row r="6" spans="1:4" ht="81">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>380</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>381</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>333</v>
@@ -13831,158 +13828,158 @@
         <v>336</v>
       </c>
       <c r="C7" s="85" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D7" s="86" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28">
+    <row r="8" spans="1:4" ht="27">
       <c r="A8" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B8" s="84" t="s">
         <v>331</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28">
+    <row r="9" spans="1:4" ht="27">
       <c r="A9" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>579</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>581</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="42">
+    <row r="10" spans="1:4" ht="40.5">
       <c r="A10" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28">
+    <row r="11" spans="1:4" ht="27">
       <c r="A11" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="27">
       <c r="A12" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="28">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27">
       <c r="A13" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>584</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>586</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="42">
+    <row r="14" spans="1:4" ht="54">
       <c r="A14" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="42">
+    <row r="15" spans="1:4" ht="40.5">
       <c r="A15" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="28">
+    <row r="16" spans="1:4" ht="27">
       <c r="A16" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28">
+    <row r="17" spans="1:4" ht="27">
       <c r="A17" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="28">
+    <row r="18" spans="1:4" ht="27">
       <c r="A18" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>333</v>
@@ -13990,41 +13987,41 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28">
+    <row r="20" spans="1:4" ht="27">
       <c r="A20" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="27">
       <c r="A21" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>333</v>
@@ -14038,35 +14035,35 @@
         <v>337</v>
       </c>
       <c r="C22" s="85" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D22" s="86" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="28">
+    <row r="23" spans="1:4" ht="27">
       <c r="A23" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B23" s="84" t="s">
         <v>331</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28">
+    <row r="24" spans="1:4" ht="40.5">
       <c r="A24" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>333</v>
@@ -14074,49 +14071,49 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="28">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="27">
       <c r="A26" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="28">
+    <row r="27" spans="1:4" ht="27">
       <c r="A27" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="28">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="27">
       <c r="A28" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>333</v>
@@ -14124,77 +14121,77 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="86" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B31" s="86" t="s">
         <v>338</v>
       </c>
       <c r="C31" s="85" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D31" s="86" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="28">
+    <row r="32" spans="1:4" ht="27">
       <c r="A32" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B32" s="84" t="s">
         <v>331</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="70">
+    <row r="33" spans="1:4" ht="67.5">
       <c r="A33" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>598</v>
-      </c>
       <c r="C33" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="56">
+    <row r="34" spans="1:4" ht="67.5">
       <c r="A34" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>333</v>
@@ -14202,83 +14199,83 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="86" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B35" s="86" t="s">
         <v>339</v>
       </c>
       <c r="C35" s="85" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="D35" s="86" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="28">
+    <row r="36" spans="1:4" ht="27">
       <c r="A36" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B36" s="84" t="s">
         <v>331</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="28">
+    <row r="37" spans="1:4" ht="27">
       <c r="A37" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>602</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>604</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="28">
+    <row r="38" spans="1:4" ht="40.5">
       <c r="A38" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="28">
+    <row r="39" spans="1:4" ht="27">
       <c r="A39" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="28">
+    <row r="40" spans="1:4" ht="27">
       <c r="A40" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>607</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>609</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>333</v>
@@ -14286,41 +14283,41 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="42">
+    <row r="42" spans="1:4" ht="40.5">
       <c r="A42" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="28">
+    <row r="43" spans="1:4" ht="27">
       <c r="A43" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>333</v>
@@ -14334,13 +14331,13 @@
         <v>340</v>
       </c>
       <c r="C44" s="85" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D44" s="86" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="42">
+    <row r="45" spans="1:4" ht="54">
       <c r="A45" s="1" t="s">
         <v>340</v>
       </c>
@@ -14348,21 +14345,21 @@
         <v>331</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="28">
+    <row r="46" spans="1:4" ht="27">
       <c r="A46" s="1" t="s">
         <v>340</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>333</v>
@@ -14373,10 +14370,10 @@
         <v>340</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>333</v>
@@ -14390,7 +14387,7 @@
         <v>197</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>333</v>
@@ -14401,10 +14398,10 @@
         <v>340</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>333</v>
@@ -14418,7 +14415,7 @@
         <v>200</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>333</v>
@@ -14432,21 +14429,21 @@
         <v>204</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="28">
+    <row r="52" spans="1:5" ht="40.5">
       <c r="A52" s="1" t="s">
         <v>340</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>333</v>
@@ -14454,13 +14451,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="102" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B53" s="102" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C53" s="85" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="D53" s="86" t="s">
         <v>335</v>
@@ -14468,55 +14465,55 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B54" s="84" t="s">
         <v>331</v>
       </c>
       <c r="C54" s="103" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="28">
+    <row r="55" spans="1:5" ht="27">
       <c r="A55" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="28">
+    <row r="56" spans="1:5" ht="40.5">
       <c r="A56" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="28">
+    <row r="57" spans="1:5" ht="27">
       <c r="A57" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B57" s="50" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C57" s="50" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>333</v>
@@ -14538,41 +14535,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.28515625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="43" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="43" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="43" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="43" customWidth="1"/>
-    <col min="5" max="5" width="87.28515625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="43" customWidth="1"/>
+    <col min="5" max="5" width="87.25" style="45" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="43" customWidth="1"/>
     <col min="7" max="7" width="33" style="64" customWidth="1"/>
     <col min="8" max="8" width="15" style="43" customWidth="1"/>
-    <col min="9" max="9" width="78.5703125" style="45" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" style="43" customWidth="1"/>
+    <col min="9" max="9" width="78.625" style="45" customWidth="1"/>
+    <col min="10" max="10" width="22.75" style="43" customWidth="1"/>
     <col min="11" max="11" width="33" style="43" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" style="58" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" style="58" customWidth="1"/>
-    <col min="14" max="14" width="93.7109375" style="45" customWidth="1"/>
-    <col min="15" max="15" width="60.5703125" style="45" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" style="43" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="54.28515625" style="43" customWidth="1"/>
-    <col min="20" max="16384" width="10.28515625" style="43"/>
+    <col min="12" max="12" width="19.375" style="58" customWidth="1"/>
+    <col min="13" max="13" width="18.125" style="58" customWidth="1"/>
+    <col min="14" max="14" width="93.75" style="45" customWidth="1"/>
+    <col min="15" max="15" width="60.625" style="45" customWidth="1"/>
+    <col min="16" max="16" width="13.875" style="43" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.875" style="43" customWidth="1"/>
+    <col min="18" max="18" width="11.75" style="43" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="54.25" style="43" customWidth="1"/>
+    <col min="20" max="16384" width="10.25" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="45" customFormat="1" ht="41.25" customHeight="1">
       <c r="B1" s="45" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="C1" s="46" t="s">
         <v>169</v>
@@ -14631,7 +14628,7 @@
         <v>167</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>168</v>
@@ -14643,61 +14640,61 @@
         <v>377</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="28">
+    <row r="3" spans="1:19" ht="40.5">
       <c r="C3" s="43" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I3" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="S3" s="43" t="s">
         <v>392</v>
       </c>
-      <c r="S3" s="43" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="42">
+    </row>
+    <row r="4" spans="1:19" ht="121.5">
       <c r="C4" s="43" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="F4" s="43">
         <v>1160</v>
       </c>
       <c r="I4" s="45" t="s">
-        <v>877</v>
-      </c>
-      <c r="S4" s="43" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="17">
+        <v>890</v>
+      </c>
+      <c r="S4" s="45" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="C5" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>642</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>719</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>643</v>
+      </c>
+      <c r="N5" s="45" t="s">
         <v>387</v>
       </c>
-      <c r="D5" s="43" t="s">
-        <v>644</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>722</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>645</v>
-      </c>
-      <c r="N5" s="45" t="s">
+      <c r="O5" s="45" t="s">
         <v>388</v>
       </c>
-      <c r="O5" s="45" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="28">
+    </row>
+    <row r="6" spans="1:19" ht="40.5">
       <c r="A6" s="43" t="s">
         <v>171</v>
       </c>
@@ -14705,221 +14702,221 @@
         <v>14</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="F6" s="43" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="H6" s="43" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="I6" s="45" t="s">
+        <v>446</v>
+      </c>
+      <c r="J6" s="47" t="s">
+        <v>726</v>
+      </c>
+      <c r="K6" s="63" t="s">
         <v>447</v>
       </c>
-      <c r="J6" s="47" t="s">
-        <v>729</v>
-      </c>
-      <c r="K6" s="63" t="s">
-        <v>448</v>
-      </c>
       <c r="S6" s="43" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="C7" s="43" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D7" s="43" t="s">
+        <v>444</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>647</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>834</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>683</v>
+      </c>
+      <c r="I7" s="45" t="s">
         <v>445</v>
       </c>
-      <c r="E7" s="45" t="s">
-        <v>649</v>
-      </c>
-      <c r="G7" s="64" t="s">
-        <v>837</v>
-      </c>
-      <c r="H7" s="43" t="s">
-        <v>686</v>
-      </c>
-      <c r="I7" s="45" t="s">
-        <v>446</v>
-      </c>
       <c r="J7" s="47" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K7" s="63" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="L7" s="43"/>
       <c r="M7" s="63"/>
       <c r="N7" s="45" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="27">
+      <c r="C8" s="43" t="s">
+        <v>660</v>
+      </c>
+      <c r="D8" s="43" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="C8" s="43" t="s">
+      <c r="E8" s="45" t="s">
+        <v>826</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>835</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="I8" s="45" t="s">
+        <v>664</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>659</v>
+      </c>
+      <c r="K8" s="104" t="s">
+        <v>662</v>
+      </c>
+      <c r="L8" s="105" t="s">
         <v>663</v>
       </c>
-      <c r="D8" s="43" t="s">
-        <v>650</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>829</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>838</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>428</v>
-      </c>
-      <c r="I8" s="45" t="s">
-        <v>667</v>
-      </c>
-      <c r="J8" s="47" t="s">
-        <v>662</v>
-      </c>
-      <c r="K8" s="104" t="s">
-        <v>665</v>
-      </c>
-      <c r="L8" s="105" t="s">
-        <v>666</v>
-      </c>
       <c r="M8" s="63"/>
     </row>
-    <row r="9" spans="1:19" ht="28">
+    <row r="9" spans="1:19" ht="40.5">
       <c r="C9" s="43" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I9" s="45" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="J9" s="47" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="K9" s="63" t="s">
+        <v>442</v>
+      </c>
+      <c r="L9" s="97" t="s">
         <v>443</v>
       </c>
-      <c r="L9" s="97" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="42">
+    </row>
+    <row r="10" spans="1:19" ht="40.5">
       <c r="C10" s="43" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I10" s="45" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="J10" s="43" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="N10" s="45" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="O10" s="45" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="S10" s="43" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="70">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="85.5">
       <c r="C11" s="43" t="s">
+        <v>791</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>474</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>709</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>720</v>
+      </c>
+      <c r="G11" s="99" t="s">
+        <v>836</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>729</v>
+      </c>
+      <c r="I11" s="45" t="s">
+        <v>792</v>
+      </c>
+      <c r="J11" s="47" t="s">
+        <v>728</v>
+      </c>
+      <c r="K11" s="62" t="s">
+        <v>793</v>
+      </c>
+      <c r="L11" s="106" t="s">
         <v>794</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>476</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>712</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>723</v>
-      </c>
-      <c r="G11" s="99" t="s">
-        <v>839</v>
-      </c>
-      <c r="H11" s="43" t="s">
-        <v>732</v>
-      </c>
-      <c r="I11" s="45" t="s">
-        <v>795</v>
-      </c>
-      <c r="J11" s="47" t="s">
-        <v>731</v>
-      </c>
-      <c r="K11" s="62" t="s">
-        <v>796</v>
-      </c>
-      <c r="L11" s="106" t="s">
-        <v>797</v>
       </c>
       <c r="M11" s="63"/>
       <c r="N11" s="45" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="O11" s="45" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S11" s="43" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="C12" s="43" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="H12" s="43" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="J12" s="47" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="K12" s="62"/>
     </row>
@@ -14928,52 +14925,52 @@
         <v>172</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J13" s="47" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="K13" s="62"/>
     </row>
-    <row r="14" spans="1:19" ht="56">
+    <row r="14" spans="1:19" ht="54">
       <c r="A14" s="43" t="s">
         <v>173</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F14" s="43">
         <v>210</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I14" s="45" t="s">
+        <v>438</v>
+      </c>
+      <c r="J14" s="47" t="s">
+        <v>420</v>
+      </c>
+      <c r="K14" s="62" t="s">
         <v>439</v>
-      </c>
-      <c r="J14" s="47" t="s">
-        <v>421</v>
-      </c>
-      <c r="K14" s="62" t="s">
-        <v>440</v>
       </c>
       <c r="L14" s="42" t="s">
         <v>364</v>
@@ -14986,760 +14983,754 @@
         <v>192</v>
       </c>
       <c r="S14" s="43" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="30">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="27">
       <c r="C15" s="43" t="s">
         <v>172</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="F15" s="43">
         <v>210</v>
       </c>
       <c r="J15" s="43" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K15" s="63"/>
     </row>
-    <row r="16" spans="1:19" ht="28">
+    <row r="16" spans="1:19" ht="40.5">
       <c r="A16" s="43" t="s">
         <v>175</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I16" s="45" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="J16" s="43" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="17">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="27">
       <c r="C17" s="43" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="F17" s="43">
         <v>1200</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I17" s="45" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J17" s="43" t="s">
+        <v>426</v>
+      </c>
+      <c r="S17" s="109" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="94.5">
+      <c r="C18" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>398</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>704</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>860</v>
+      </c>
+      <c r="G18" s="64" t="s">
+        <v>858</v>
+      </c>
+      <c r="H18" s="43" t="s">
         <v>427</v>
       </c>
-      <c r="S17" s="109" t="s">
+      <c r="I18" s="45" t="s">
+        <v>469</v>
+      </c>
+      <c r="J18" s="47" t="s">
+        <v>425</v>
+      </c>
+      <c r="N18" s="45" t="s">
+        <v>703</v>
+      </c>
+      <c r="S18" s="43" t="s">
         <v>699</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="84">
-      <c r="C18" s="43" t="s">
-        <v>400</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>399</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>707</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>863</v>
-      </c>
-      <c r="G18" s="64" t="s">
-        <v>861</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>428</v>
-      </c>
-      <c r="I18" s="45" t="s">
-        <v>471</v>
-      </c>
-      <c r="J18" s="47" t="s">
-        <v>426</v>
-      </c>
-      <c r="N18" s="45" t="s">
-        <v>706</v>
-      </c>
-      <c r="S18" s="43" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="C19" s="43" t="s">
+        <v>475</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>700</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>701</v>
+      </c>
+      <c r="G19" s="99" t="s">
         <v>477</v>
       </c>
-      <c r="D19" s="43" t="s">
-        <v>703</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>704</v>
-      </c>
-      <c r="G19" s="99" t="s">
-        <v>479</v>
-      </c>
       <c r="H19" s="43" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I19" s="45" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="J19" s="43" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L19" s="63" t="s">
+        <v>476</v>
+      </c>
+      <c r="M19" s="63" t="s">
         <v>478</v>
       </c>
-      <c r="M19" s="63" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="30">
+    </row>
+    <row r="20" spans="1:19" ht="40.5">
       <c r="C20" s="43" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="G20" s="99" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I20" s="45" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J20" s="43" t="s">
+        <v>429</v>
+      </c>
+      <c r="K20" s="63" t="s">
+        <v>454</v>
+      </c>
+      <c r="L20" s="98" t="s">
+        <v>455</v>
+      </c>
+      <c r="M20" s="98" t="s">
+        <v>456</v>
+      </c>
+      <c r="N20" s="45" t="s">
+        <v>457</v>
+      </c>
+      <c r="S20" s="43" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="40.5">
+      <c r="C21" s="43" t="s">
+        <v>484</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>707</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>711</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>653</v>
+      </c>
+      <c r="I21" s="45" t="s">
+        <v>655</v>
+      </c>
+      <c r="J21" s="43" t="s">
         <v>430</v>
       </c>
-      <c r="K20" s="63" t="s">
-        <v>456</v>
-      </c>
-      <c r="L20" s="98" t="s">
-        <v>457</v>
-      </c>
-      <c r="M20" s="98" t="s">
-        <v>458</v>
-      </c>
-      <c r="N20" s="45" t="s">
-        <v>459</v>
-      </c>
-      <c r="S20" s="43" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="28">
-      <c r="C21" s="43" t="s">
-        <v>486</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>391</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>710</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>714</v>
-      </c>
-      <c r="H21" s="43" t="s">
+      <c r="N21" s="45" t="s">
+        <v>654</v>
+      </c>
+      <c r="O21" s="45" t="s">
         <v>656</v>
       </c>
-      <c r="I21" s="45" t="s">
-        <v>658</v>
-      </c>
-      <c r="J21" s="43" t="s">
-        <v>431</v>
-      </c>
-      <c r="N21" s="45" t="s">
-        <v>657</v>
-      </c>
-      <c r="O21" s="45" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="28">
+    </row>
+    <row r="22" spans="1:19" ht="27">
       <c r="C22" s="43" t="s">
         <v>172</v>
       </c>
       <c r="D22" s="43" t="s">
+        <v>708</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="F22" s="43" t="s">
         <v>711</v>
       </c>
-      <c r="E22" s="45" t="s">
-        <v>719</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>714</v>
-      </c>
       <c r="J22" s="43" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="112">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="135">
       <c r="A23" s="43" t="s">
         <v>176</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E23" s="45" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="F23" s="43" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="G23" s="64" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="H23" s="43" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I23" s="45" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J23" s="47" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K23" s="63"/>
       <c r="L23" s="97" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M23" s="63"/>
       <c r="N23" s="45" t="s">
+        <v>450</v>
+      </c>
+      <c r="O23" s="45" t="s">
         <v>451</v>
       </c>
-      <c r="O23" s="45" t="s">
+      <c r="P23" s="43" t="s">
         <v>452</v>
       </c>
-      <c r="P23" s="43" t="s">
+      <c r="S23" s="45" t="s">
         <v>453</v>
       </c>
-      <c r="Q23" s="43" t="s">
-        <v>454</v>
-      </c>
-      <c r="R23" s="43">
-        <v>1</v>
-      </c>
-      <c r="S23" s="45" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+    </row>
+    <row r="24" spans="1:19" ht="14.25">
       <c r="C24" s="43" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E24" s="45" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="F24" s="43" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H24" s="43" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="I24" s="45" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="J24" s="43" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K24" s="63"/>
       <c r="L24" s="42"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" ht="14.25">
       <c r="C25" s="43" t="s">
+        <v>668</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>691</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>669</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>850</v>
+      </c>
+      <c r="G25" s="64" t="s">
+        <v>670</v>
+      </c>
+      <c r="H25" s="43" t="s">
+        <v>678</v>
+      </c>
+      <c r="I25" s="45" t="s">
+        <v>672</v>
+      </c>
+      <c r="J25" s="43" t="s">
+        <v>679</v>
+      </c>
+      <c r="K25" s="63" t="s">
         <v>671</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>694</v>
-      </c>
-      <c r="E25" s="45" t="s">
-        <v>672</v>
-      </c>
-      <c r="F25" s="43" t="s">
-        <v>853</v>
-      </c>
-      <c r="G25" s="64" t="s">
-        <v>673</v>
-      </c>
-      <c r="H25" s="43" t="s">
-        <v>681</v>
-      </c>
-      <c r="I25" s="45" t="s">
-        <v>675</v>
-      </c>
-      <c r="J25" s="43" t="s">
-        <v>682</v>
-      </c>
-      <c r="K25" s="63" t="s">
-        <v>674</v>
       </c>
       <c r="L25" s="42"/>
       <c r="N25" s="45" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="27">
       <c r="C26" s="43" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="H26" s="43" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I26" s="45" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J26" s="47" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="K26" s="63"/>
       <c r="S26" s="43" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="28">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="27">
       <c r="C27" s="43" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="F27" s="43" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="H27" s="43" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I27" s="45" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="J27" s="43" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="K27" s="63"/>
     </row>
-    <row r="28" spans="1:19" ht="28">
+    <row r="28" spans="1:19" ht="27">
       <c r="C28" s="43" t="s">
         <v>172</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E28" s="45" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="F28" s="43" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="J28" s="43" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K28" s="63"/>
       <c r="L28" s="63"/>
     </row>
-    <row r="29" spans="1:19" ht="30">
+    <row r="29" spans="1:19" ht="27">
       <c r="A29" s="43" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B29" s="43" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E29" s="45" t="s">
+        <v>745</v>
+      </c>
+      <c r="F29" s="43" t="s">
         <v>748</v>
       </c>
-      <c r="F29" s="43" t="s">
-        <v>751</v>
-      </c>
       <c r="H29" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="I29" s="45" t="s">
+        <v>473</v>
+      </c>
+      <c r="J29" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="I29" s="45" t="s">
-        <v>475</v>
-      </c>
-      <c r="J29" s="43" t="s">
-        <v>415</v>
-      </c>
       <c r="S29" s="43" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="14.25">
       <c r="C30" s="43" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E30" s="45" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="G30" s="64">
         <v>500</v>
       </c>
       <c r="H30" s="43" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I30" s="45" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J30" s="43" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K30" s="62" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L30" s="98" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="M30" s="98" t="s">
+        <v>462</v>
+      </c>
+      <c r="N30" s="45" t="s">
+        <v>463</v>
+      </c>
+      <c r="S30" s="43" t="s">
         <v>464</v>
       </c>
-      <c r="N30" s="45" t="s">
-        <v>465</v>
-      </c>
-      <c r="S30" s="43" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="28">
+    </row>
+    <row r="31" spans="1:19" ht="40.5">
       <c r="C31" s="43" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E31" s="45" t="s">
+        <v>737</v>
+      </c>
+      <c r="G31" s="64" t="s">
+        <v>834</v>
+      </c>
+      <c r="H31" s="43" t="s">
+        <v>412</v>
+      </c>
+      <c r="I31" s="45" t="s">
         <v>740</v>
       </c>
-      <c r="G31" s="64" t="s">
+      <c r="J31" s="43" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="27">
+      <c r="C32" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="E32" s="45" t="s">
+        <v>738</v>
+      </c>
+      <c r="F32" s="43" t="s">
+        <v>734</v>
+      </c>
+      <c r="G32" s="64" t="s">
         <v>837</v>
       </c>
-      <c r="H31" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="I31" s="45" t="s">
-        <v>743</v>
-      </c>
-      <c r="J31" s="43" t="s">
+      <c r="H32" s="43" t="s">
+        <v>415</v>
+      </c>
+      <c r="I32" s="45" t="s">
+        <v>814</v>
+      </c>
+      <c r="J32" s="43" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" ht="28">
-      <c r="C32" s="43" t="s">
-        <v>405</v>
-      </c>
-      <c r="D32" s="43" t="s">
-        <v>404</v>
-      </c>
-      <c r="E32" s="45" t="s">
-        <v>741</v>
-      </c>
-      <c r="F32" s="43" t="s">
-        <v>737</v>
-      </c>
-      <c r="G32" s="64" t="s">
-        <v>840</v>
-      </c>
-      <c r="H32" s="43" t="s">
-        <v>416</v>
-      </c>
-      <c r="I32" s="45" t="s">
-        <v>817</v>
-      </c>
-      <c r="J32" s="43" t="s">
-        <v>436</v>
-      </c>
       <c r="K32" s="62" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L32" s="63"/>
       <c r="M32" s="63" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="27">
       <c r="C33" s="43" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D33" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="E33" s="45" t="s">
+        <v>739</v>
+      </c>
+      <c r="G33" s="64" t="s">
+        <v>834</v>
+      </c>
+      <c r="H33" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="I33" s="45" t="s">
+        <v>657</v>
+      </c>
+      <c r="J33" s="43" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="40.5">
+      <c r="C34" s="43" t="s">
+        <v>742</v>
+      </c>
+      <c r="D34" s="43" t="s">
         <v>405</v>
       </c>
-      <c r="E33" s="45" t="s">
-        <v>742</v>
-      </c>
-      <c r="G33" s="64" t="s">
-        <v>837</v>
-      </c>
-      <c r="H33" s="43" t="s">
-        <v>414</v>
-      </c>
-      <c r="I33" s="45" t="s">
-        <v>660</v>
-      </c>
-      <c r="J33" s="43" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="42">
-      <c r="C34" s="43" t="s">
-        <v>745</v>
-      </c>
-      <c r="D34" s="43" t="s">
+      <c r="E34" s="45" t="s">
+        <v>741</v>
+      </c>
+      <c r="G34" s="64" t="s">
+        <v>834</v>
+      </c>
+      <c r="H34" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="I34" s="45" t="s">
+        <v>658</v>
+      </c>
+      <c r="J34" s="43" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="27">
+      <c r="C35" s="43" t="s">
+        <v>433</v>
+      </c>
+      <c r="D35" s="43" t="s">
         <v>406</v>
       </c>
-      <c r="E34" s="45" t="s">
-        <v>744</v>
-      </c>
-      <c r="G34" s="64" t="s">
-        <v>837</v>
-      </c>
-      <c r="H34" s="43" t="s">
-        <v>414</v>
-      </c>
-      <c r="I34" s="45" t="s">
-        <v>661</v>
-      </c>
-      <c r="J34" s="43" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="28">
-      <c r="C35" s="43" t="s">
-        <v>434</v>
-      </c>
-      <c r="D35" s="43" t="s">
-        <v>407</v>
-      </c>
       <c r="E35" s="45" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="F35" s="43" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="G35" s="64" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H35" s="43" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I35" s="45" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="J35" s="43" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K35" s="43" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="30">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="27">
       <c r="C36" s="43" t="s">
         <v>172</v>
       </c>
       <c r="D36" s="43" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E36" s="45" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="F36" s="43" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="I36" s="45" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="J36" s="43" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="30">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="27">
       <c r="A37" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>883</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>519</v>
+      </c>
+      <c r="D37" s="43" t="s">
         <v>408</v>
       </c>
-      <c r="B37" s="43" t="s">
-        <v>889</v>
-      </c>
-      <c r="C37" s="43" t="s">
-        <v>521</v>
-      </c>
-      <c r="D37" s="43" t="s">
-        <v>409</v>
-      </c>
       <c r="E37" s="45" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="F37" s="43">
         <v>170</v>
       </c>
       <c r="G37" s="64" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="H37" s="43" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="I37" s="45" t="s">
+        <v>784</v>
+      </c>
+      <c r="J37" s="43" t="s">
+        <v>786</v>
+      </c>
+      <c r="L37" s="96" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="27">
+      <c r="C38" s="43" t="s">
+        <v>821</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>519</v>
+      </c>
+      <c r="E38" s="45" t="s">
+        <v>767</v>
+      </c>
+      <c r="G38" s="64" t="s">
+        <v>834</v>
+      </c>
+      <c r="H38" s="43" t="s">
+        <v>785</v>
+      </c>
+      <c r="I38" s="45" t="s">
+        <v>770</v>
+      </c>
+      <c r="J38" s="43" t="s">
         <v>787</v>
       </c>
-      <c r="J37" s="43" t="s">
+      <c r="L38" s="42" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="40.5">
+      <c r="C39" s="43" t="s">
+        <v>675</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>765</v>
+      </c>
+      <c r="E39" s="45" t="s">
+        <v>772</v>
+      </c>
+      <c r="H39" s="43" t="s">
         <v>789</v>
       </c>
-      <c r="L37" s="96" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="28">
-      <c r="C38" s="43" t="s">
-        <v>824</v>
-      </c>
-      <c r="D38" s="43" t="s">
-        <v>521</v>
-      </c>
-      <c r="E38" s="45" t="s">
-        <v>770</v>
-      </c>
-      <c r="G38" s="64" t="s">
-        <v>837</v>
-      </c>
-      <c r="H38" s="43" t="s">
+      <c r="I39" s="45" t="s">
+        <v>773</v>
+      </c>
+      <c r="J39" s="43" t="s">
         <v>788</v>
       </c>
-      <c r="I38" s="45" t="s">
-        <v>773</v>
-      </c>
-      <c r="J38" s="43" t="s">
-        <v>790</v>
-      </c>
-      <c r="L38" s="42" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="28">
-      <c r="C39" s="43" t="s">
-        <v>678</v>
-      </c>
-      <c r="D39" s="43" t="s">
-        <v>768</v>
-      </c>
-      <c r="E39" s="45" t="s">
+      <c r="L39" s="42" t="s">
+        <v>774</v>
+      </c>
+      <c r="S39" s="43" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="54">
+      <c r="C40" s="43" t="s">
         <v>775</v>
       </c>
-      <c r="H39" s="43" t="s">
-        <v>792</v>
-      </c>
-      <c r="I39" s="45" t="s">
-        <v>776</v>
-      </c>
-      <c r="J39" s="43" t="s">
-        <v>791</v>
-      </c>
-      <c r="L39" s="42" t="s">
-        <v>777</v>
-      </c>
-      <c r="S39" s="43" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="70">
-      <c r="C40" s="43" t="s">
-        <v>778</v>
-      </c>
       <c r="D40" s="43" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E40" s="45" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="F40" s="43">
         <v>200</v>
       </c>
       <c r="G40" s="64" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="I40" s="45" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="J40" s="43" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="K40" s="43" t="s">
+        <v>777</v>
+      </c>
+      <c r="L40" s="63" t="s">
+        <v>778</v>
+      </c>
+      <c r="O40" s="45" t="s">
+        <v>779</v>
+      </c>
+      <c r="S40" s="43" t="s">
         <v>780</v>
-      </c>
-      <c r="L40" s="63" t="s">
-        <v>781</v>
-      </c>
-      <c r="O40" s="45" t="s">
-        <v>782</v>
-      </c>
-      <c r="S40" s="43" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -15747,33 +15738,33 @@
         <v>172</v>
       </c>
       <c r="D41" s="43" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="E41" s="45" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F41" s="43">
         <v>160</v>
       </c>
       <c r="J41" s="43" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="43" t="s">
+        <v>410</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>886</v>
+      </c>
+      <c r="C42" s="43" t="s">
         <v>411</v>
       </c>
-      <c r="B42" s="43" t="s">
-        <v>892</v>
-      </c>
-      <c r="C42" s="43" t="s">
-        <v>412</v>
-      </c>
       <c r="D42" s="43" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E42" s="45" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="F42" s="43">
         <v>1160</v>
@@ -15802,21 +15793,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="129.5703125" style="90" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="129.625" style="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14">
+    <row r="1" spans="1:4">
       <c r="A1" s="52" t="s">
         <v>198</v>
       </c>
@@ -15830,7 +15821,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>194</v>
       </c>
@@ -15844,26 +15835,26 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28">
+    <row r="3" spans="1:4" ht="27">
       <c r="A3" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14">
+    </row>
+    <row r="4" spans="1:4" ht="27">
       <c r="A4" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>200</v>
@@ -15872,12 +15863,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>204</v>
@@ -15886,341 +15877,341 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14">
+    <row r="6" spans="1:4" ht="27">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>205</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="28">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="27">
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="14">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>206</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="14">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27">
       <c r="A14" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="28">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27">
       <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="14">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>209</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="14">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="14">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="14">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="14">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="5" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="14">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="5" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="14">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="5" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="14">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="14">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="5" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="14">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="5" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="14">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="14">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>210</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="14">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="107" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D30" s="108" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -16235,21 +16226,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="54.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="56">
+    <row r="1" spans="1:4" ht="54">
       <c r="A1" s="67" t="s">
         <v>167</v>
       </c>
@@ -16257,66 +16248,66 @@
         <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="56">
+    <row r="2" spans="1:4" ht="67.5">
       <c r="A2" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="154">
+    <row r="3" spans="1:4" ht="162">
       <c r="A3" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="70">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="94.5">
       <c r="A4" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="66">
+    <row r="5" spans="1:4" ht="71.25">
       <c r="A5" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="42">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="54">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -16327,77 +16318,77 @@
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="70">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="81">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="70">
+    </row>
+    <row r="8" spans="1:4" ht="67.5">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="100" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="92">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="111.75">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="107" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C9" s="90" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="42.75">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="118">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="168">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="42">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="40.5">
       <c r="A12" s="91" t="s">
         <v>175</v>
       </c>
@@ -16405,314 +16396,314 @@
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="54">
+    <row r="13" spans="1:4" ht="70.5">
       <c r="A13" s="91" t="s">
         <v>175</v>
       </c>
       <c r="B13" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C13" s="90" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="43">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="56.25">
       <c r="A14" s="91" t="s">
         <v>175</v>
       </c>
       <c r="B14" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C14" s="90" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="84">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="81">
       <c r="A15" s="91" t="s">
         <v>175</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="53">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="70.5">
       <c r="A16" s="91" t="s">
         <v>175</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C16" s="90" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="42">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="40.5">
       <c r="A17" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="112">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="121.5">
       <c r="A18" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="98">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="108">
       <c r="A19" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B19" s="100" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="42">
+    <row r="20" spans="1:4" ht="40.5">
       <c r="A20" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="56">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="67.5">
       <c r="A21" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="42">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="54">
       <c r="A22" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="56">
+    <row r="23" spans="1:4" ht="67.5">
       <c r="A23" s="44" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="140">
+    <row r="24" spans="1:4" ht="162">
       <c r="A24" s="44" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B24" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C24" s="110" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="126">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="135">
       <c r="A25" s="44" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="40.5">
+      <c r="A26" s="44" t="s">
+        <v>506</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="40.5">
+      <c r="A27" s="44" t="s">
+        <v>506</v>
+      </c>
+      <c r="B27" s="44" t="s">
         <v>512</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C27" s="110" t="s">
         <v>815</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="42">
-      <c r="A26" s="44" t="s">
-        <v>508</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="D27" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="81">
+      <c r="A28" s="44" t="s">
+        <v>506</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="28">
-      <c r="A27" s="44" t="s">
-        <v>508</v>
-      </c>
-      <c r="B27" s="44" t="s">
-        <v>514</v>
-      </c>
-      <c r="C27" s="110" t="s">
+      <c r="D28" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="40.5">
+      <c r="A29" s="44" t="s">
+        <v>506</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>817</v>
+      </c>
+      <c r="C29" s="50" t="s">
         <v>818</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="84">
-      <c r="A28" s="44" t="s">
-        <v>508</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="95.25">
+      <c r="A30" s="44" t="s">
+        <v>516</v>
+      </c>
+      <c r="B30" s="44" t="s">
         <v>517</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="42">
-      <c r="A29" s="44" t="s">
-        <v>508</v>
-      </c>
-      <c r="B29" s="50" t="s">
-        <v>820</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>821</v>
-      </c>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" ht="77">
-      <c r="A30" s="44" t="s">
-        <v>518</v>
-      </c>
-      <c r="B30" s="44" t="s">
-        <v>519</v>
-      </c>
       <c r="C30" s="111" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="54">
+    <row r="31" spans="1:4" ht="69.75">
       <c r="A31" s="44" t="s">
+        <v>516</v>
+      </c>
+      <c r="B31" s="44" t="s">
         <v>518</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="C31" s="90" t="s">
+        <v>820</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="70.5">
+      <c r="A32" s="44" t="s">
+        <v>516</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>822</v>
+      </c>
+      <c r="C32" s="90" t="s">
+        <v>823</v>
+      </c>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" ht="108">
+      <c r="A33" s="44" t="s">
+        <v>516</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="54.75">
+      <c r="A34" s="44" t="s">
+        <v>522</v>
+      </c>
+      <c r="B34" s="91" t="s">
         <v>520</v>
       </c>
-      <c r="C31" s="90" t="s">
-        <v>823</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="55">
-      <c r="A32" s="44" t="s">
-        <v>518</v>
-      </c>
-      <c r="B32" s="44" t="s">
-        <v>825</v>
-      </c>
-      <c r="C32" s="90" t="s">
-        <v>826</v>
-      </c>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" ht="98">
-      <c r="A33" s="44" t="s">
-        <v>518</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>827</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="43">
-      <c r="A34" s="44" t="s">
-        <v>524</v>
-      </c>
-      <c r="B34" s="91" t="s">
-        <v>522</v>
-      </c>
       <c r="C34" s="101" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -16727,39 +16718,39 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="27.125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="9" customWidth="1"/>
     <col min="3" max="3" width="78" style="21" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="49.42578125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="49.375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="9" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="5.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.25" style="9" customWidth="1"/>
     <col min="10" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="112">
+    <row r="1" spans="1:6" ht="135.75">
       <c r="A1" s="21" t="s">
         <v>348</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="14">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="21" t="s">
         <v>348</v>
       </c>
@@ -16767,10 +16758,10 @@
         <v>120</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="68">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="71.25">
       <c r="A3" s="21" t="s">
         <v>348</v>
       </c>
@@ -16781,7 +16772,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="70">
+    <row r="4" spans="1:6" ht="69">
       <c r="A4" s="21" t="s">
         <v>348</v>
       </c>
@@ -16793,7 +16784,7 @@
       </c>
       <c r="D4" s="38"/>
     </row>
-    <row r="5" spans="1:6" ht="56">
+    <row r="5" spans="1:6" ht="81.75">
       <c r="A5" s="21" t="s">
         <v>348</v>
       </c>
@@ -16805,7 +16796,7 @@
       </c>
       <c r="D5" s="38"/>
     </row>
-    <row r="6" spans="1:6" ht="50">
+    <row r="6" spans="1:6" ht="68.25">
       <c r="A6" s="21" t="s">
         <v>348</v>
       </c>
@@ -16813,10 +16804,10 @@
         <v>122</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="26">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27.75">
       <c r="A7" s="21" t="s">
         <v>348</v>
       </c>
@@ -16828,7 +16819,7 @@
       </c>
       <c r="D7" s="42"/>
     </row>
-    <row r="8" spans="1:6" ht="17">
+    <row r="8" spans="1:6">
       <c r="A8" s="21" t="s">
         <v>348</v>
       </c>
@@ -16839,7 +16830,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="105">
+    <row r="9" spans="1:6" ht="139.5">
       <c r="A9" s="21" t="s">
         <v>348</v>
       </c>
@@ -16847,11 +16838,11 @@
         <v>121</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="62">
+    <row r="10" spans="1:6" ht="97.5">
       <c r="A10" s="21" t="s">
         <v>348</v>
       </c>
@@ -16859,11 +16850,11 @@
         <v>121</v>
       </c>
       <c r="C10" s="115" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D10" s="92"/>
     </row>
-    <row r="11" spans="1:6" ht="112">
+    <row r="11" spans="1:6" ht="141.75">
       <c r="A11" s="21" t="s">
         <v>348</v>
       </c>
@@ -16875,7 +16866,7 @@
       </c>
       <c r="D11" s="30"/>
     </row>
-    <row r="12" spans="1:6" ht="113">
+    <row r="12" spans="1:6" ht="122.25">
       <c r="A12" s="21" t="s">
         <v>348</v>
       </c>
@@ -16886,7 +16877,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="71">
+    <row r="13" spans="1:6" ht="81.75">
       <c r="A13" s="22" t="s">
         <v>349</v>
       </c>
@@ -16899,7 +16890,7 @@
       <c r="D13" s="39"/>
       <c r="F13" s="40"/>
     </row>
-    <row r="14" spans="1:6" ht="14">
+    <row r="14" spans="1:6">
       <c r="B14" s="19" t="s">
         <v>347</v>
       </c>
@@ -16907,7 +16898,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="40" customHeight="1">
+    <row r="15" spans="1:6" ht="39.950000000000003" customHeight="1">
       <c r="A15" s="89" t="s">
         <v>349</v>
       </c>
@@ -16915,10 +16906,10 @@
         <v>4</v>
       </c>
       <c r="C15" s="114" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="154">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="192">
       <c r="A16" s="89" t="s">
         <v>350</v>
       </c>
@@ -16926,11 +16917,11 @@
         <v>148</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="29">
+    <row r="17" spans="1:8" ht="27.75">
       <c r="A17" s="22" t="s">
         <v>350</v>
       </c>
@@ -16941,7 +16932,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17">
+    <row r="18" spans="1:8">
       <c r="A18" s="22" t="s">
         <v>350</v>
       </c>
@@ -16952,7 +16943,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="54">
+    <row r="19" spans="1:8" ht="56.25">
       <c r="A19" s="22" t="s">
         <v>350</v>
       </c>
@@ -16964,19 +16955,19 @@
       </c>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="41">
+    <row r="20" spans="1:8" ht="54.75">
       <c r="A20" s="22" t="s">
         <v>350</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="67">
+    <row r="21" spans="1:8" ht="97.5">
       <c r="A21" s="61" t="s">
         <v>223</v>
       </c>
@@ -16984,11 +16975,11 @@
         <v>116</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="17">
+    <row r="22" spans="1:8">
       <c r="A22" s="61" t="s">
         <v>223</v>
       </c>
@@ -17004,7 +16995,7 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="26">
+    <row r="23" spans="1:8" ht="27.75">
       <c r="A23" s="61" t="s">
         <v>223</v>
       </c>
@@ -17012,13 +17003,13 @@
         <v>124</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:8" ht="74">
+    <row r="24" spans="1:8" ht="95.25">
       <c r="A24" s="93" t="s">
         <v>223</v>
       </c>
@@ -17032,7 +17023,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="140">
+    <row r="25" spans="1:8" ht="162.75">
       <c r="A25" s="61" t="s">
         <v>223</v>
       </c>
@@ -17043,7 +17034,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="56">
+    <row r="26" spans="1:8" ht="54.75">
       <c r="A26" s="61" t="s">
         <v>223</v>
       </c>
@@ -17054,7 +17045,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="14">
+    <row r="27" spans="1:8">
       <c r="A27" s="61" t="s">
         <v>223</v>
       </c>
@@ -17065,7 +17056,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="57">
+    <row r="28" spans="1:8" ht="54.75">
       <c r="A28" s="61" t="s">
         <v>223</v>
       </c>
@@ -17076,7 +17067,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="17">
+    <row r="29" spans="1:8">
       <c r="A29" s="61" t="s">
         <v>223</v>
       </c>
@@ -17087,7 +17078,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="57">
+    <row r="30" spans="1:8" ht="54.75">
       <c r="A30" s="61" t="s">
         <v>223</v>
       </c>
@@ -17098,7 +17089,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17">
+    <row r="31" spans="1:8" ht="27.75">
       <c r="A31" s="61" t="s">
         <v>223</v>
       </c>
@@ -17110,7 +17101,7 @@
       </c>
       <c r="D31" s="38"/>
     </row>
-    <row r="32" spans="1:8" ht="43">
+    <row r="32" spans="1:8" ht="41.25">
       <c r="A32" s="61" t="s">
         <v>223</v>
       </c>
@@ -17122,7 +17113,7 @@
       </c>
       <c r="D32" s="38"/>
     </row>
-    <row r="33" spans="1:4" ht="17">
+    <row r="33" spans="1:4">
       <c r="A33" s="61" t="s">
         <v>223</v>
       </c>
@@ -17133,7 +17124,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="57">
+    <row r="34" spans="1:4" ht="54.75">
       <c r="A34" s="61" t="s">
         <v>223</v>
       </c>
@@ -17144,7 +17135,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="29">
+    <row r="35" spans="1:4" ht="41.25">
       <c r="A35" s="61" t="s">
         <v>223</v>
       </c>
@@ -17155,7 +17146,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17">
+    <row r="36" spans="1:4">
       <c r="A36" s="61" t="s">
         <v>223</v>
       </c>
@@ -17166,7 +17157,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="29">
+    <row r="37" spans="1:4" ht="41.25">
       <c r="A37" s="61" t="s">
         <v>223</v>
       </c>
@@ -17177,7 +17168,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="29">
+    <row r="38" spans="1:4" ht="27.75">
       <c r="A38" s="61" t="s">
         <v>223</v>
       </c>
@@ -17188,7 +17179,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17">
+    <row r="39" spans="1:4">
       <c r="A39" s="61" t="s">
         <v>223</v>
       </c>
@@ -17199,7 +17190,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="43">
+    <row r="40" spans="1:4" ht="42.75">
       <c r="A40" s="61" t="s">
         <v>223</v>
       </c>
@@ -17210,7 +17201,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17">
+    <row r="41" spans="1:4">
       <c r="A41" s="61" t="s">
         <v>223</v>
       </c>
@@ -17222,7 +17213,7 @@
       </c>
       <c r="D41" s="38"/>
     </row>
-    <row r="42" spans="1:4" ht="17">
+    <row r="42" spans="1:4">
       <c r="A42" s="61" t="s">
         <v>223</v>
       </c>
@@ -17233,7 +17224,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="71">
+    <row r="43" spans="1:4" ht="68.25">
       <c r="A43" s="61" t="s">
         <v>223</v>
       </c>
@@ -17244,7 +17235,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="29">
+    <row r="44" spans="1:4" ht="27.75">
       <c r="A44" s="61" t="s">
         <v>223</v>
       </c>
@@ -17267,21 +17258,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="84.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="84.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" ht="17">
+    <row r="1" spans="1:7" s="9" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>67</v>
       </c>
@@ -17293,7 +17284,7 @@
       </c>
       <c r="E1" s="42"/>
     </row>
-    <row r="2" spans="1:7" s="9" customFormat="1" ht="17">
+    <row r="2" spans="1:7" s="9" customFormat="1">
       <c r="A2" s="7" t="s">
         <v>67</v>
       </c>
@@ -17304,7 +17295,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="9" customFormat="1" ht="17">
+    <row r="3" spans="1:7" s="9" customFormat="1">
       <c r="A3" s="7" t="s">
         <v>67</v>
       </c>
@@ -17315,7 +17306,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="9" customFormat="1" ht="17">
+    <row r="4" spans="1:7" s="9" customFormat="1" ht="27.75">
       <c r="A4" s="7" t="s">
         <v>67</v>
       </c>
@@ -17327,7 +17318,7 @@
       </c>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:7" s="9" customFormat="1" ht="17">
+    <row r="5" spans="1:7" s="9" customFormat="1">
       <c r="A5" s="7" t="s">
         <v>67</v>
       </c>
@@ -17338,7 +17329,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="9" customFormat="1" ht="17">
+    <row r="6" spans="1:7" s="9" customFormat="1" ht="27.75">
       <c r="A6" s="7" t="s">
         <v>67</v>
       </c>
@@ -17349,7 +17340,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="9" customFormat="1" ht="17">
+    <row r="7" spans="1:7" s="9" customFormat="1">
       <c r="A7" s="7" t="s">
         <v>67</v>
       </c>
@@ -17360,7 +17351,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="9" customFormat="1" ht="17">
+    <row r="8" spans="1:7" s="9" customFormat="1" ht="27.75">
       <c r="A8" s="7" t="s">
         <v>67</v>
       </c>
@@ -17371,7 +17362,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="9" customFormat="1" ht="17">
+    <row r="9" spans="1:7" s="9" customFormat="1">
       <c r="A9" s="7" t="s">
         <v>67</v>
       </c>
@@ -17382,7 +17373,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="9" customFormat="1" ht="38">
+    <row r="10" spans="1:7" s="9" customFormat="1" ht="54.75">
       <c r="A10" s="7" t="s">
         <v>67</v>
       </c>
@@ -17394,13 +17385,13 @@
       </c>
       <c r="E10" s="23"/>
     </row>
-    <row r="11" spans="1:7" s="9" customFormat="1" ht="17">
+    <row r="11" spans="1:7" s="9" customFormat="1">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="24"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:7" s="9" customFormat="1" ht="17">
+    <row r="12" spans="1:7" s="9" customFormat="1">
       <c r="A12" s="7" t="s">
         <v>67</v>
       </c>
@@ -17413,7 +17404,7 @@
       <c r="D12" s="54"/>
       <c r="E12" s="42"/>
     </row>
-    <row r="13" spans="1:7" s="9" customFormat="1" ht="17">
+    <row r="13" spans="1:7" s="9" customFormat="1">
       <c r="A13" s="7" t="s">
         <v>67</v>
       </c>
@@ -17424,7 +17415,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="9" customFormat="1" ht="17">
+    <row r="14" spans="1:7" s="9" customFormat="1">
       <c r="A14" s="7" t="s">
         <v>67</v>
       </c>
@@ -17435,7 +17426,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="9" customFormat="1" ht="110">
+    <row r="15" spans="1:7" s="9" customFormat="1" ht="122.25">
       <c r="A15" s="7" t="s">
         <v>67</v>
       </c>
@@ -17448,7 +17439,7 @@
       <c r="D15" s="54"/>
       <c r="E15" s="42"/>
     </row>
-    <row r="16" spans="1:7" s="9" customFormat="1" ht="26">
+    <row r="16" spans="1:7" s="9" customFormat="1" ht="27.75">
       <c r="A16" s="7" t="s">
         <v>67</v>
       </c>
@@ -17461,7 +17452,7 @@
       <c r="D16" s="54"/>
       <c r="E16" s="42"/>
     </row>
-    <row r="17" spans="1:3" s="9" customFormat="1" ht="29">
+    <row r="17" spans="1:3" s="9" customFormat="1" ht="27.75">
       <c r="A17" s="7" t="s">
         <v>85</v>
       </c>
@@ -17472,7 +17463,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="9" customFormat="1" ht="17">
+    <row r="18" spans="1:3" s="9" customFormat="1" ht="27.75">
       <c r="A18" s="7" t="s">
         <v>85</v>
       </c>
@@ -17483,7 +17474,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="9" customFormat="1" ht="29">
+    <row r="19" spans="1:3" s="9" customFormat="1" ht="27.75">
       <c r="A19" s="7" t="s">
         <v>85</v>
       </c>
@@ -17491,10 +17482,10 @@
         <v>96</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="9" customFormat="1" ht="17">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="9" customFormat="1">
       <c r="A20" s="8" t="s">
         <v>68</v>
       </c>
@@ -17505,7 +17496,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="9" customFormat="1" ht="17">
+    <row r="21" spans="1:3" s="9" customFormat="1">
       <c r="A21" s="8" t="s">
         <v>68</v>
       </c>
@@ -17516,7 +17507,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="9" customFormat="1" ht="17">
+    <row r="22" spans="1:3" s="9" customFormat="1">
       <c r="A22" s="8" t="s">
         <v>68</v>
       </c>
@@ -17527,7 +17518,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="9" customFormat="1" ht="17">
+    <row r="23" spans="1:3" s="9" customFormat="1">
       <c r="A23" s="8" t="s">
         <v>68</v>
       </c>
@@ -17538,7 +17529,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="9" customFormat="1" ht="17">
+    <row r="24" spans="1:3" s="9" customFormat="1">
       <c r="A24" s="8" t="s">
         <v>68</v>
       </c>
@@ -17549,7 +17540,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="9" customFormat="1" ht="17">
+    <row r="25" spans="1:3" s="9" customFormat="1">
       <c r="A25" s="8" t="s">
         <v>68</v>
       </c>
@@ -17571,7 +17562,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="9" customFormat="1" ht="17">
+    <row r="27" spans="1:3" s="9" customFormat="1">
       <c r="A27" s="8" t="s">
         <v>68</v>
       </c>
@@ -17582,7 +17573,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="9" customFormat="1" ht="17">
+    <row r="28" spans="1:3" s="9" customFormat="1">
       <c r="A28" s="8" t="s">
         <v>68</v>
       </c>
@@ -17593,7 +17584,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="9" customFormat="1" ht="17">
+    <row r="29" spans="1:3" s="9" customFormat="1">
       <c r="A29" s="8" t="s">
         <v>68</v>
       </c>
@@ -17616,20 +17607,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="46.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="46.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="9" customFormat="1" ht="17">
+    <row r="1" spans="1:2" s="9" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>126</v>
       </c>
@@ -17637,7 +17628,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" ht="17">
+    <row r="2" spans="1:2" s="9" customFormat="1">
       <c r="A2" s="15" t="s">
         <v>128</v>
       </c>
@@ -17645,7 +17636,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" ht="17">
+    <row r="3" spans="1:2" s="9" customFormat="1" ht="30">
       <c r="A3" s="15" t="s">
         <v>130</v>
       </c>
@@ -17653,15 +17644,15 @@
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" ht="38">
+    <row r="4" spans="1:2" s="9" customFormat="1" ht="63">
       <c r="A4" s="15" t="s">
         <v>131</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" ht="29">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="9" customFormat="1" ht="27.75">
       <c r="A5" s="15" t="s">
         <v>132</v>
       </c>
@@ -17669,7 +17660,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" ht="26">
+    <row r="6" spans="1:2" s="9" customFormat="1" ht="27.75">
       <c r="A6" s="15" t="s">
         <v>136</v>
       </c>
@@ -17677,7 +17668,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="9" customFormat="1" ht="24">
+    <row r="7" spans="1:2" s="9" customFormat="1" ht="27.75">
       <c r="A7" s="18" t="s">
         <v>134</v>
       </c>

--- a/data/关西赏樱8日自由行.xlsx
+++ b/data/关西赏樱8日自由行.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="15480" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="title" sheetId="20" r:id="rId1"/>
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">schedule!$A$1:$S$16</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -4291,10 +4291,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>在机场就买好京都bus一日券，KTP2日券的交通套票.各种交通的优惠卡可以在关西机场T1航站楼1楼的KAA（旅游服务台）买到。具体可以参照[官方网站](http://www.kaakix.co.jp/travel/travel_cn.html)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>KTP(关西周游券)有2日和3日2种，我们本次只需要购买2日券，请注意要出示护照购买外国游客版（日本人版2天必须连在一起）。如果飞机时间较晚当天机场的服务台已经下班，KTP可以梅田或难波的游客指导中心买到。京都bus一日券可以在京都车站旁边的游客服务中心购买，或者直接在bus车上找司机购买。</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -4537,11 +4533,6 @@
   </si>
   <si>
     <t>有</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>日本泡温泉的注意点可以参考[日本泡温泉的浴衣哪里买](http://www.zhidequ.com:8080/qa/JP-000020)
-今天去有马因为路程较远，建议早一点走。如果旅行的季节正好赶上有[马六甲一日券](http://www.shintetsu.co.jp/arima_rokko/index.html)可以使用（马六甲一日券一般只有每年冬天才有发售和使用），也可以使用有马六甲一日券。因为有马六甲一日券可以免费乘坐六甲山上下的缆车，这样从有马温泉去三宫可以直接坐缆车穿过六甲山去三宫而避免绕路。使用坂急版本的有马六甲一日券，这今日的交通基本可以免去。</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -5762,10 +5753,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>【二条城前】乘坐_101号bus_或_9号bus_，约20分钟到达【京都駅前】</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>虽然本次行程赏樱花为主，但是去日本怎么能不购物呢，不管是宅男，还是女神，一定都有自己心仪的东西，在这次行程里，在京都，大阪和神户和奈良的核心商业街都留足了时间，装满你的箱子应该是没什么问题的。</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -5958,15 +5945,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>从东寺走回京都车站，【京都駅前】乘坐_101号bus_或_9号bus_，约20分钟到达【二条城前】</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>六甲山花园露台</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>有马温泉乡直接有缆车站，乘坐_六甲有馬ローブウェ－_直接到达六甲山顶，走3分钟就到六甲花园露台</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -6134,10 +6113,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>在【トロッコ嵯峨站】乘坐_トロッコ小火车_约25分钟_到达【亀岡站】的岚山山顶</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>岚山小火车车站</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -6154,337 +6129,14 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <r>
-      <t>【新大阪】乘坐_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大阪市営御堂筋線_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>约2分钟</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>到【西中島南方】，徒步</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2分钟到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【南方】乘坐_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>阪急京都本線_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>到【桂】，转_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>阪急嵐山線_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>到达【嵐山】。全程约1小时，之后步行10分钟穿过一片樱花林和_渡月桥_到达【トロッコ嵯峨站】</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>如果选择保津川河漂流下山，途中会碰到买烧烤串的船，可以买一些烤串吃</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>从岚山顶上下去有很多种方法：
-1.乘坐在【亀岡站】乘坐联络bus到达【亀岡乘船場】，然后乘坐漂流船顺保津川河一路飘下来并欣赏河两岸风景，全程需要2.5小时，下船口边上就是岚山公园
-2.坐反向的_トロッコ小火车_返回【トロッコ嵯峨站】然后徒步10分钟
-3.从【亀岡站】走10分钟到达JR【馬堀站】乘坐_JR嵯峨野線.京都方向_到达【嵯峨嵐山】然后徒步15分钟
-4.纯爷们走下来。。。。。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>【ユニバーサルシティ】乘坐_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ＪＲゆめ咲線_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>到【西九条】转_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ＪＲ大阪環状線内回り_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>到【大阪】转_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ＪＲ東海道</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>山陽本線_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>到【新大阪】,全程约20分钟</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>天龙寺出来到马路斜对面的【嵐山】乘坐_京福電気鉄道_约20分钟到【北野白梅町】，出站后转_京都市営バス</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>２０５号_约5分钟到达【金閣寺道】，然后徒步5分钟到达</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>【金閣寺】乘坐_12号bus_到约半小时【四条烏丸】</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>河原町</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <r>
-      <t>【京都】 乘坐_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>近鉄奈良線急行_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>约40分钟到达【近鉄奈良】，之后沿着公园一路走过去</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>【新大阪】乘坐_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ＪＲ東海道</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>山陽本線_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>到【大阪】，转_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ＪＲ大阪環状線内回り_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>到【西九条】，转_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ＪＲゆめ咲線_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>到达【ユニバーサルシティ】。全程约20分钟，之后步行5分钟到达环球影城</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>KTP一日券</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -6497,76 +6149,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>六甲山牧场坐山上循环bus约10分钟到达六甲ケーブル山上站，然后坐六甲ケーブル缆车下山。乘坐_16号bus_约10分钟到达【阪急六甲】，之后去【六甲】乘坐_阪急神戸本線_到达【神戸三宮】，全程约50分钟</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>【神戸三宮】乘坐_神戸高速線(阪急特急)_约4分钟到达【高速神戸】，走15分钟到达神户港</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>【河原町】乘坐_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>阪急京都本線_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>到【南方】，徒步</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2分钟到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【西中島南方】乘坐_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大阪市営御堂筋線_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>到【新大阪】，全程约50分钟</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>神户港有日本十分出名的港口夜景，可以坐大观览车看夜景，也有不少商店，有兴趣的还可以坐游轮出海去看日落</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -6574,100 +6156,14 @@
     <t>奈良公园</t>
   </si>
   <si>
-    <r>
-      <t>【大阪】乘坐_ＪＲ東海道</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>山陽本線_或者【梅田】乘坐_大阪市営御堂筋線_大约5分钟到达【新大阪】</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>KTP一日券</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>【新大阪】乘坐_阪急京都本線_到达【西中島南方】，然后徒步2分钟走到【南方】乘坐_阪急京都本線_到达【烏丸】，徒步2分钟到达【四条】，乘坐_京都市営烏丸線_到达【京都】，全程1小时。出站走10分钟到达东本原寺</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>如果不利用ktp一日券，可以在【新大阪】乘坐_ＪＲ東海道</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>山陽本線新快速_到达【京都】，全程约30分钟，需要540日元</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>【近鉄奈良】 乘坐_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>近鉄奈良線快速急行_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>约40分钟到达【大阪難波】</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>心斎橋</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>【心斎橋】坐_大阪市営御堂筋線_约12分钟到【新大阪】</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>6:00左右</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -6688,10 +6184,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>本次旅行包含了京都，大阪，神户，奈良的几乎所有精华景点，并选择了关西最有名的有马温泉作为泡温泉的地点。因为赏樱花行程有其特殊性，就算是去过日本的游客，根据本行程游览依然会有很多新的体验。8天中去除飞机来回的2天，奈良半天，大阪2天半（其中一天半在环球影城），神户六甲山和有马温泉1天，京都2天（其中一天进行和服体验），赏樱花主要集中在赏樱景点最多的京都。因为赏樱花因为受天气影响可能开花时间会提前或延后几天（包括因为下雨不适合赏樱花），所以每天的行程设计的都相对独立，便于根据实际天气情况来调整游览的前后顺序。为了照顾同志们的购物欲，在大阪，京都，神户的核心商圈都安排了足够的自由购物时间。由于樱花季节机票住宿都_比较贵_，为了最大限度值回票价，本行程比较_紧凑_，尽可能多玩一些景点且每个景点安排足够的时间，包广阔需要晚间继续游玩的天数也较多，所以对于_体力_有一定的要求，请注意自己的HP是否跟的上。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>22:00以前</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -6704,10 +6196,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>清水寺下坡到大路上，在【五条坂】乘坐_100路bus约25分钟_到达【銀閣寺前】</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>银阁寺</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -6733,114 +6221,6 @@
   </si>
   <si>
     <t>八坂神社+花见小路（祗园）</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>【祇园】坐_100路bus_约10分钟到【五条坂】或者【清水道前】下车走上坡路20分钟到达清水寺</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>【高速神戸】坐_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>神戸高速線(阪急特急)_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>到【十三】转_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>阪急京都本線準急_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>到【南方】，徒步2分钟到【西中島南方】转_大阪市営御堂筋線_到【新大阪】，全程约1小时</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>【新大阪】乘坐_ＪＲ東海道</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>山陽本線新快速_到达【京都】，全程约30分钟。之后出站后坐_100路bus_约20分钟到【五条坂】或者【清水道前】下车走上坡路20分钟到达清水寺</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>【五条坂】或者【清水道前】坐_100路bus_约20分钟到【京都駅前】,之后去【京都】车站乘坐_ＪＲ東海道</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>山陽本線新快速_约30分钟到达【新大阪】</t>
-    </r>
-    <rPh sb="32" eb="33">
-      <t>エキ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>マエ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -7265,9 +6645,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>http://www.osaka-info.jp/ch_t/ofc/201101/</t>
-  </si>
-  <si>
     <t>梅田（空中展望台）</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -7293,56 +6670,6 @@
   </si>
   <si>
     <t>梅田空中展望台（梅田スカイビル空中庭園)是梅田的标志性建筑，其实就是梅田蓝天大厦双塔的空中走廊，很容易辨认，在上边可以一览大阪的夜景。梅田有很多大型商场，分布有序且购物环境安静，最后的半天可以在这个地区的各大商场扫货</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>【新大阪】乘坐_Ｒ東海道本線_约4分钟到达【新大阪】</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>【新大阪】乘坐_ＪＲ東海道本線_到达【大阪】，转_ＪＲ大阪環状線外回り</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>京橋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>鶴橋方面_到达【大阪城公園】，全程约半小时</t>
-    </r>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -8361,62 +7688,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>【天神橋筋六丁目】乘坐_大阪市営谷町線_约5分钟到达【東梅田】，出站即到达梅田地区</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>【関西空港(鉄道)】 乘坐_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ＪＲ関空快速_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>约1小时到达【大阪】</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>【大阪】 乘坐_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ＪＲ関空快速_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>约1小时到达【関西空港(鉄道)】</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>主行程/文化遗产和古迹/岚山风景区.JPG</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -8454,32 +7725,6 @@
   </si>
   <si>
     <t>有马六甲坂急一日券，200（大阪市営御堂筋線）</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>【新大阪】乘坐_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大阪市営御堂筋線_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>到达【西中島南方】，然后徒步2分钟走到【南方】乘坐_阪急京都本線_到达【神戸三宮】，转_神戸高速線_到达【湊川】后转转_神鉄有馬線_经过【有馬口】到达【有馬温泉】，全程大约需要2个小时（也可以从新大阪走20分钟到【南方】车站后直接利用有马六甲坂急一日券坐车，这两个车站离的并不远）</t>
-    </r>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -8727,102 +7972,6 @@
       </rPr>
       <t xml:space="preserve">](http://www.zhidequ.com:8080/qa/JP-000009)
 </t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>樱花季节不管是机票，还是住宿，都要比平时贵一些。既然已经花了大价钱来了，自然要玩痛快，所以本次行程在预算上设计的并不小气，而是尽可能把能玩到的地方都玩到，但要把钱花的值。预估整个行程的交通费用8日大约为_13000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日元</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_左右（不含机票），一般不太差的三餐加上旅游途中的小吃饮料约为_23000日元_（不含特别豪华的餐饮），交通+餐饮按目前的汇率约合人民币_2200元_左右。而景点的费用全部约为_18000日元左右_（其中环球影城门票+京都岚山保津川河漂流占14000左右），樱花季节去日本的往返机票含税一般在_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5千人民币_左右</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。樱花季能够找到的位置不错的比较舒适的双人间住宿一天在_1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元人民币_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上下（价格是打着一些富余的，可以不含早餐，因为很多天行程走的很早）。这样算下来，这个行程的全部成本在一个人_120</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元人民币</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_左右。</t>
     </r>
     <phoneticPr fontId="3"/>
   </si>
@@ -9461,10 +8610,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>京都车站可以拿到京都的游览图，可以参照[哪里拿京都游览图](http://www.zhidequ.com:8080/qa/JP-000023)。如果第一天没有买京都bus一日券，也可以先在在这个地方买（请注意：_今天不使用_）</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <r>
       <t>今天是本次行程的最后一个整天，所以以</t>
     </r>
@@ -9499,13 +8644,126 @@
       <t>去日本旅游带背包还是箱子]((http://www.zhidequ.com:8080/qa/JP-000012)。因为难波在前边已经去过，今天的购物以梅田商业区为主。另外将去天神桥筋商店街感受一下传统大阪的购物环境。</t>
     </r>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>本次旅行包含了京都，大阪，神户，奈良的几乎所有精华景点，并选择了关西最有名的有马温泉作为泡温泉的地点。因为赏樱花行程有其特殊性，就算是去过日本的游客，根据本行程游览依然会有很多新的体验。8天中去除飞机来回的2天，奈良半天，大阪2天半（其中一天半在环球影城），神户六甲山和有马温泉1天，京都2天（其中一天进行和服体验），赏樱花主要集中在赏樱景点最多的京都。因为赏樱花因为受天气影响可能开花时间会提前或延后几天（包括因为下雨不适合赏樱花），所以每天的行程设计的都相对独立，便于根据实际天气情况来调整游览的前后顺序。为了照顾同志们的购物欲，在大阪，京都，神户的核心商圈都安排了足够的自由购物时间。由于樱花季节机票住宿都^比较贵^，为了最大限度值回票价，本行程比较^紧凑^，尽可能多玩一些景点且每个景点安排足够的时间，包广阔需要晚间继续游玩的天数也较多，所以对于^体力^有一定的要求，请注意自己的HP是否跟的上。</t>
+  </si>
+  <si>
+    <t>樱花季节不管是机票，还是住宿，都要比平时贵一些。既然已经花了大价钱来了，自然要玩痛快，所以本次行程在预算上设计的并不小气，而是尽可能把能玩到的地方都玩到，但要把钱花的值。预估整个行程的交通费用8日大约为^13000日元^左右（不含机票），一般不太差的三餐加上旅游途中的小吃饮料约为^23000日元^（不含特别豪华的餐饮），交通+餐饮按目前的汇率约合人民币^2200元^左右。而景点的费用全部约为^18000日元左右^（其中环球影城门票+京都岚山保津川河漂流占14000左右），樱花季节去日本的往返机票含税一般在^5千人民币^左右。樱花季能够找到的位置不错的比较舒适的双人间住宿一天在^1000元人民币^上下（价格是打着一些富余的，可以不含早餐，因为很多天行程走的很早）。这样算下来，这个行程的全部成本在一个人^12000元人民币^左右。</t>
+  </si>
+  <si>
+    <t>在机场就买好京都bus一日券，KTP2日券的交通套票.各种交通的优惠卡可以在关西机场T1航站楼1楼的KAA（旅游服务台）买到。具体可以参照[官方网站](http://www.kaakix.co.jp/travel/travel^cn.html)</t>
+  </si>
+  <si>
+    <t>【関西空港(鉄道)】 乘坐^ＪＲ関空快速^约1小时到达【大阪】</t>
+  </si>
+  <si>
+    <t>【大阪】乘坐^ＪＲ東海道・山陽本線^或者【梅田】乘坐^大阪市営御堂筋線^大约5分钟到达【新大阪】</t>
+  </si>
+  <si>
+    <t>【新大阪】乘坐^阪急京都本線^到达【西中島南方】，然后徒步2分钟走到【南方】乘坐^阪急京都本線^到达【烏丸】，徒步2分钟到达【四条】，乘坐^京都市営烏丸線^到达【京都】，全程1小时。出站走10分钟到达东本原寺</t>
+  </si>
+  <si>
+    <t>如果不利用ktp一日券，可以在【新大阪】乘坐^ＪＲ東海道・山陽本線新快速^到达【京都】，全程约30分钟，需要540日元</t>
+  </si>
+  <si>
+    <t>从东寺走回京都车站，【京都駅前】乘坐^101号bus^或^9号bus^，约20分钟到达【二条城前】</t>
+  </si>
+  <si>
+    <t>【二条城前】乘坐^101号bus^或^9号bus^，约20分钟到达【京都駅前】</t>
+  </si>
+  <si>
+    <t>京都车站可以拿到京都的游览图，可以参照[哪里拿京都游览图](http://www.zhidequ.com:8080/qa/JP-000023)。如果第一天没有买京都bus一日券，也可以先在在这个地方买（请注意：^今天不使用^）</t>
+  </si>
+  <si>
+    <t>【京都】 乘坐^近鉄奈良線急行^约40分钟到达【近鉄奈良】，之后沿着公园一路走过去</t>
+  </si>
+  <si>
+    <t>【近鉄奈良】 乘坐^近鉄奈良線快速急行^约40分钟到达【大阪難波】</t>
+  </si>
+  <si>
+    <t>【心斎橋】坐^大阪市営御堂筋線^约12分钟到【新大阪】</t>
+  </si>
+  <si>
+    <t>【新大阪】乘坐^ＪＲ東海道・山陽本線^到【大阪】，转^ＪＲ大阪環状線内回り^到【西九条】，转^ＪＲゆめ咲線^到达【ユニバーサルシティ】。全程约20分钟，之后步行5分钟到达环球影城</t>
+  </si>
+  <si>
+    <t>【ユニバーサルシティ】乘坐^ＪＲゆめ咲線^到【西九条】转^ＪＲ大阪環状線内回り^到【大阪】转^ＪＲ東海道・山陽本線^到【新大阪】,全程约20分钟</t>
+  </si>
+  <si>
+    <t>【新大阪】乘坐^大阪市営御堂筋線^约2分钟到【西中島南方】，徒步2分钟到【南方】乘坐^阪急京都本線^到【桂】，转^阪急嵐山線^到达【嵐山】。全程约1小时，之后步行10分钟穿过一片樱花林和^渡月桥^到达【トロッコ嵯峨站】</t>
+  </si>
+  <si>
+    <t>在【トロッコ嵯峨站】乘坐^トロッコ小火车^约25分钟^到达【亀岡站】的岚山山顶</t>
+  </si>
+  <si>
+    <t>从岚山顶上下去有很多种方法：
+1.乘坐在【亀岡站】乘坐联络bus到达【亀岡乘船場】，然后乘坐漂流船顺保津川河一路飘下来并欣赏河两岸风景，全程需要2.5小时，下船口边上就是岚山公园
+2.坐反向的^トロッコ小火车^返回【トロッコ嵯峨站】然后徒步10分钟
+3.从【亀岡站】走10分钟到达JR【馬堀站】乘坐^JR嵯峨野線.京都方向^到达【嵯峨嵐山】然后徒步15分钟
+4.纯爷们走下来。。。。。</t>
+  </si>
+  <si>
+    <t>天龙寺出来到马路斜对面的【嵐山】乘坐^京福電気鉄道^约20分钟到【北野白梅町】，出站后转^京都市営バス・２０５号^约5分钟到达【金閣寺道】，然后徒步5分钟到达</t>
+  </si>
+  <si>
+    <t>【金閣寺】乘坐^12号bus^到约半小时【四条烏丸】</t>
+  </si>
+  <si>
+    <t>【河原町】乘坐^阪急京都本線^到【南方】，徒步2分钟到【西中島南方】乘坐^大阪市営御堂筋線^到【新大阪】，全程约50分钟</t>
+  </si>
+  <si>
+    <t>【新大阪】乘坐^大阪市営御堂筋線^到达【西中島南方】，然后徒步2分钟走到【南方】乘坐^阪急京都本線^到达【神戸三宮】，转^神戸高速線^到达【湊川】后转转^神鉄有馬線^经过【有馬口】到达【有馬温泉】，全程大约需要2个小时（也可以从新大阪走20分钟到【南方】车站后直接利用有马六甲坂急一日券坐车，这两个车站离的并不远）</t>
+  </si>
+  <si>
+    <t>日本泡温泉的注意点可以参考[日本泡温泉的浴衣哪里买](http://www.zhidequ.com:8080/qa/JP-000020)
+今天去有马因为路程较远，建议早一点走。如果旅行的季节正好赶上有[马六甲一日券](http://www.shintetsu.co.jp/arima^rokko/index.html)可以使用（马六甲一日券一般只有每年冬天才有发售和使用），也可以使用有马六甲一日券。因为有马六甲一日券可以免费乘坐六甲山上下的缆车，这样从有马温泉去三宫可以直接坐缆车穿过六甲山去三宫而避免绕路。使用坂急版本的有马六甲一日券，这今日的交通基本可以免去。</t>
+  </si>
+  <si>
+    <t>有马温泉乡直接有缆车站，乘坐^六甲有馬ローブウェ－^直接到达六甲山顶，走3分钟就到六甲花园露台</t>
+  </si>
+  <si>
+    <t>六甲山牧场坐山上循环bus约10分钟到达六甲ケーブル山上站，然后坐六甲ケーブル缆车下山。乘坐^16号bus^约10分钟到达【阪急六甲】，之后去【六甲】乘坐^阪急神戸本線^到达【神戸三宮】，全程约50分钟</t>
+  </si>
+  <si>
+    <t>【神戸三宮】乘坐^神戸高速線(阪急特急)^约4分钟到达【高速神戸】，走15分钟到达神户港</t>
+  </si>
+  <si>
+    <t>【高速神戸】坐^神戸高速線(阪急特急)^到【十三】转^阪急京都本線準急^到【南方】，徒步2分钟到【西中島南方】转^大阪市営御堂筋線^到【新大阪】，全程约1小时</t>
+  </si>
+  <si>
+    <t>【新大阪】乘坐^ＪＲ東海道・山陽本線新快速^到达【京都】，全程约30分钟。之后出站后坐^100路bus^约20分钟到【五条坂】或者【清水道前】下车走上坡路20分钟到达清水寺</t>
+  </si>
+  <si>
+    <t>清水寺下坡到大路上，在【五条坂】乘坐^100路bus约25分钟^到达【銀閣寺前】</t>
+  </si>
+  <si>
+    <t>【祇园】坐^100路bus^约10分钟到【五条坂】或者【清水道前】下车走上坡路20分钟到达清水寺</t>
+  </si>
+  <si>
+    <t>【五条坂】或者【清水道前】坐^100路bus^约20分钟到【京都駅前】,之后去【京都】车站乘坐^ＪＲ東海道・山陽本線新快速^约30分钟到达【新大阪】</t>
+  </si>
+  <si>
+    <t>【新大阪】乘坐^ＪＲ東海道本線^到达【大阪】，转^ＪＲ大阪環状線外回り・京橋・鶴橋方面^到达【大阪城公園】，全程约半小时</t>
+  </si>
+  <si>
+    <t>http://www.osaka-info.jp/ch^t/ofc/201101/</t>
+  </si>
+  <si>
+    <t>【天神橋筋六丁目】乘坐^大阪市営谷町線^约5分钟到达【東梅田】，出站即到达梅田地区</t>
+  </si>
+  <si>
+    <t>【新大阪】乘坐^Ｒ東海道本線^约4分钟到达【新大阪】</t>
+  </si>
+  <si>
+    <t>【大阪】 乘坐^ＪＲ関空快速^约1小时到达【関西空港(鉄道)】</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="67">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="66" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -9813,7 +9071,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <scheme val="minor"/>
     </font>
@@ -9827,7 +9085,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -9841,7 +9099,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <scheme val="minor"/>
     </font>
@@ -9864,7 +9122,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -9956,13 +9214,6 @@
       <name val="FangSong"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="MS Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -10451,8 +9702,8 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="65" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="49" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -10483,14 +9734,14 @@
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超级链接" xfId="2" builtinId="8"/>
+    <cellStyle name="随超级链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="随超级链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="随超级链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="随超级链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="随超级链接" xfId="7" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -10879,7 +10130,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -10923,7 +10174,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -10944,53 +10195,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="14">
       <c r="A1" s="116" t="s">
         <v>335</v>
       </c>
       <c r="B1" s="116" t="s">
-        <v>875</v>
+        <v>840</v>
       </c>
       <c r="C1" s="116" t="s">
-        <v>876</v>
+        <v>841</v>
       </c>
       <c r="D1" s="116" t="s">
-        <v>877</v>
+        <v>842</v>
       </c>
       <c r="E1" s="118" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" s="117" t="s">
-        <v>879</v>
+        <v>844</v>
       </c>
       <c r="B2" s="117" t="s">
-        <v>880</v>
+        <v>845</v>
       </c>
       <c r="C2" s="117" t="s">
-        <v>881</v>
+        <v>846</v>
       </c>
       <c r="D2" s="117" t="s">
-        <v>878</v>
+        <v>843</v>
       </c>
       <c r="E2" t="s">
-        <v>888</v>
+        <v>853</v>
       </c>
     </row>
   </sheetData>
@@ -11005,22 +10256,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="65.75" customWidth="1"/>
-    <col min="4" max="4" width="21.625" customWidth="1"/>
-    <col min="5" max="5" width="48.625" customWidth="1"/>
-    <col min="6" max="6" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="65.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="48.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="95.25">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="84">
       <c r="A1" s="19" t="s">
         <v>341</v>
       </c>
@@ -11032,7 +10283,7 @@
       </c>
       <c r="E1" s="21"/>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" ht="96">
+    <row r="2" spans="1:6" s="9" customFormat="1" ht="91">
       <c r="A2" s="19" t="s">
         <v>341</v>
       </c>
@@ -11044,7 +10295,7 @@
       </c>
       <c r="E2" s="21"/>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" ht="95.25">
+    <row r="3" spans="1:6" s="9" customFormat="1" ht="70">
       <c r="A3" s="19" t="s">
         <v>341</v>
       </c>
@@ -11056,7 +10307,7 @@
       </c>
       <c r="E3" s="21"/>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" ht="27.75">
+    <row r="4" spans="1:6" s="9" customFormat="1" ht="28">
       <c r="A4" s="19" t="s">
         <v>341</v>
       </c>
@@ -11068,7 +10319,7 @@
       </c>
       <c r="E4" s="21"/>
     </row>
-    <row r="5" spans="1:6" s="9" customFormat="1">
+    <row r="5" spans="1:6" s="9" customFormat="1" ht="14">
       <c r="A5" s="19" t="s">
         <v>343</v>
       </c>
@@ -11085,7 +10336,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" ht="27.75">
+    <row r="6" spans="1:6" s="9" customFormat="1" ht="29">
       <c r="A6" s="19" t="s">
         <v>342</v>
       </c>
@@ -11099,7 +10350,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="9" customFormat="1" ht="27">
+    <row r="7" spans="1:6" s="9" customFormat="1" ht="28">
       <c r="A7" s="19" t="s">
         <v>342</v>
       </c>
@@ -11113,7 +10364,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="9" customFormat="1" ht="40.5">
+    <row r="8" spans="1:6" s="9" customFormat="1" ht="28">
       <c r="A8" s="19" t="s">
         <v>342</v>
       </c>
@@ -11127,7 +10378,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" ht="41.25">
+    <row r="9" spans="1:6" s="9" customFormat="1" ht="43">
       <c r="A9" s="19" t="s">
         <v>342</v>
       </c>
@@ -11147,7 +10398,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" ht="28.5">
+    <row r="10" spans="1:6" s="9" customFormat="1" ht="29">
       <c r="A10" s="19" t="s">
         <v>342</v>
       </c>
@@ -11167,7 +10418,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" ht="40.5">
+    <row r="11" spans="1:6" s="9" customFormat="1" ht="28">
       <c r="A11" s="19" t="s">
         <v>342</v>
       </c>
@@ -11181,13 +10432,13 @@
         <v>151</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>856</v>
+        <v>822</v>
       </c>
       <c r="F11" s="54" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1">
+    <row r="12" spans="1:6" s="9" customFormat="1" ht="17">
       <c r="A12" s="19" t="s">
         <v>342</v>
       </c>
@@ -11207,7 +10458,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" ht="27.75">
+    <row r="13" spans="1:6" s="9" customFormat="1" ht="43">
       <c r="A13" s="19" t="s">
         <v>342</v>
       </c>
@@ -11227,7 +10478,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="9" customFormat="1">
+    <row r="14" spans="1:6" s="9" customFormat="1" ht="17">
       <c r="A14" s="19" t="s">
         <v>342</v>
       </c>
@@ -11238,13 +10489,13 @@
         <v>303</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>855</v>
+        <v>821</v>
       </c>
       <c r="E14" s="112" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="9" customFormat="1">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="9" customFormat="1" ht="14">
       <c r="A15" s="19" t="s">
         <v>342</v>
       </c>
@@ -11256,7 +10507,7 @@
       </c>
       <c r="E15" s="21"/>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="27.75">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="28">
       <c r="A16" s="19" t="s">
         <v>342</v>
       </c>
@@ -11269,7 +10520,7 @@
       <c r="D16" s="38"/>
       <c r="E16" s="21"/>
     </row>
-    <row r="17" spans="1:5" s="9" customFormat="1" ht="54.75">
+    <row r="17" spans="1:5" s="9" customFormat="1" ht="56">
       <c r="A17" s="19" t="s">
         <v>342</v>
       </c>
@@ -11281,7 +10532,7 @@
       </c>
       <c r="E17" s="21"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="14">
       <c r="A18" s="19"/>
     </row>
   </sheetData>
@@ -11296,25 +10547,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="17">
       <c r="A2" s="44" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="17">
       <c r="A3" s="13" t="s">
         <v>123</v>
       </c>
@@ -11337,7 +10588,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="17">
       <c r="A4" s="10" t="s">
         <v>26</v>
       </c>
@@ -11352,7 +10603,7 @@
       </c>
       <c r="G4" s="28"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="17">
       <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
@@ -11369,7 +10620,7 @@
       </c>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="17">
       <c r="A6" s="10" t="s">
         <v>27</v>
       </c>
@@ -11384,7 +10635,7 @@
       </c>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="17">
       <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
@@ -11399,7 +10650,7 @@
       </c>
       <c r="G7" s="28"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="17">
       <c r="A8" s="10" t="s">
         <v>29</v>
       </c>
@@ -11416,7 +10667,7 @@
       </c>
       <c r="G8" s="28"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="17">
       <c r="A9" s="10" t="s">
         <v>31</v>
       </c>
@@ -11443,16 +10694,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" ht="17">
       <c r="A1" t="s">
         <v>310</v>
       </c>
@@ -11462,82 +10713,82 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" ht="17">
       <c r="A4" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" ht="17">
       <c r="A5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" ht="17">
       <c r="A6" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" ht="17">
       <c r="A7" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" ht="17">
       <c r="A8" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" ht="17">
       <c r="A9" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" ht="17">
       <c r="A10" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" ht="17">
       <c r="A11" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" ht="17">
       <c r="A12" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" ht="17">
       <c r="A13" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" ht="17">
       <c r="A14" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" ht="17">
       <c r="A15" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" ht="17">
       <c r="A16" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" ht="17">
       <c r="A17" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" ht="17">
       <c r="A18" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" ht="17">
       <c r="A19" t="s">
         <v>327</v>
       </c>
@@ -11547,12 +10798,12 @@
         <v>328</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" ht="17">
       <c r="A21" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" ht="17">
       <c r="A22" t="s">
         <v>330</v>
       </c>
@@ -11569,24 +10820,24 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9" style="70"/>
-    <col min="2" max="2" width="11.625" style="70" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="70" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="70" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="70" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="70" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.375" style="70" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.42578125" style="70" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25">
+    <row r="1" spans="1:6" ht="20">
       <c r="A1" s="75" t="s">
         <v>297</v>
       </c>
@@ -11607,7 +10858,7 @@
       <c r="E2" s="72"/>
       <c r="F2" s="72"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="18">
       <c r="B3" s="82" t="s">
         <v>298</v>
       </c>
@@ -11618,7 +10869,7 @@
       <c r="E3" s="119"/>
       <c r="F3" s="72"/>
     </row>
-    <row r="4" spans="1:6" ht="28.5">
+    <row r="4" spans="1:6" ht="30">
       <c r="B4" s="82" t="s">
         <v>299</v>
       </c>
@@ -11693,7 +10944,7 @@
       </c>
       <c r="F8" s="72"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="18">
       <c r="B10" s="82" t="s">
         <v>241</v>
       </c>
@@ -11704,7 +10955,7 @@
       <c r="E10" s="121"/>
       <c r="F10" s="122"/>
     </row>
-    <row r="11" spans="1:6" ht="30">
+    <row r="11" spans="1:6" ht="18">
       <c r="B11" s="82" t="s">
         <v>299</v>
       </c>
@@ -11840,7 +11091,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="85.5">
+    <row r="19" spans="1:8" ht="75">
       <c r="B19" s="77" t="s">
         <v>237</v>
       </c>
@@ -11993,7 +11244,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="85.5">
+    <row r="28" spans="1:8" ht="90">
       <c r="B28" s="77" t="s">
         <v>240</v>
       </c>
@@ -12048,7 +11299,7 @@
       <c r="G32" s="72"/>
       <c r="H32" s="72"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" ht="18">
       <c r="A34" s="74" t="s">
         <v>296</v>
       </c>
@@ -12071,7 +11322,7 @@
       <c r="F35" s="126"/>
       <c r="G35" s="127"/>
     </row>
-    <row r="36" spans="1:8" ht="57">
+    <row r="36" spans="1:8" ht="45">
       <c r="B36" s="124"/>
       <c r="C36" s="78" t="s">
         <v>266</v>
@@ -12089,7 +11340,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="42.75">
+    <row r="37" spans="1:8" ht="45">
       <c r="B37" s="80" t="s">
         <v>271</v>
       </c>
@@ -12109,7 +11360,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="28.5">
+    <row r="38" spans="1:8" ht="30">
       <c r="B38" s="80" t="s">
         <v>272</v>
       </c>
@@ -12129,7 +11380,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="28.5">
+    <row r="39" spans="1:8" ht="30">
       <c r="B39" s="80" t="s">
         <v>273</v>
       </c>
@@ -12149,7 +11400,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="28.5">
+    <row r="40" spans="1:8" ht="30">
       <c r="B40" s="80" t="s">
         <v>275</v>
       </c>
@@ -12169,7 +11420,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="28.5">
+    <row r="41" spans="1:8" ht="30">
       <c r="B41" s="80" t="s">
         <v>276</v>
       </c>
@@ -12209,7 +11460,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="57">
+    <row r="43" spans="1:8" ht="45">
       <c r="B43" s="80" t="s">
         <v>278</v>
       </c>
@@ -12229,7 +11480,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="57">
+    <row r="44" spans="1:8" ht="60">
       <c r="B44" s="80" t="s">
         <v>279</v>
       </c>
@@ -12243,7 +11494,7 @@
       <c r="F44" s="80"/>
       <c r="G44" s="80"/>
     </row>
-    <row r="45" spans="1:8" ht="28.5">
+    <row r="45" spans="1:8" ht="30">
       <c r="B45" s="80" t="s">
         <v>281</v>
       </c>
@@ -12283,7 +11534,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="57">
+    <row r="47" spans="1:8" ht="60">
       <c r="B47" s="80" t="s">
         <v>283</v>
       </c>
@@ -12303,7 +11554,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="71.25">
+    <row r="48" spans="1:8" ht="75">
       <c r="B48" s="80" t="s">
         <v>284</v>
       </c>
@@ -12323,7 +11574,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="49" spans="2:7" ht="85.5">
+    <row r="49" spans="2:7" ht="60">
       <c r="B49" s="80" t="s">
         <v>285</v>
       </c>
@@ -12343,7 +11594,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="50" spans="2:7" ht="42.75">
+    <row r="50" spans="2:7" ht="45">
       <c r="B50" s="80" t="s">
         <v>286</v>
       </c>
@@ -12363,7 +11614,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="51" spans="2:7" ht="71.25">
+    <row r="51" spans="2:7" ht="60">
       <c r="B51" s="80" t="s">
         <v>287</v>
       </c>
@@ -12403,7 +11654,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="2:7" ht="57">
+    <row r="53" spans="2:7" ht="75">
       <c r="B53" s="80" t="s">
         <v>290</v>
       </c>
@@ -12443,7 +11694,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="55" spans="2:7" ht="28.5">
+    <row r="55" spans="2:7" ht="30">
       <c r="B55" s="80" t="s">
         <v>292</v>
       </c>
@@ -12483,7 +11734,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="57" spans="2:7" ht="42.75">
+    <row r="57" spans="2:7" ht="45">
       <c r="B57" s="80" t="s">
         <v>294</v>
       </c>
@@ -12521,28 +11772,28 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.375" customWidth="1"/>
-    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="116" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="17">
       <c r="A2" s="7" t="s">
         <v>181</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="17">
       <c r="A3" s="13" t="s">
         <v>54</v>
       </c>
@@ -12553,7 +11804,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="17">
       <c r="A4" s="11" t="s">
         <v>35</v>
       </c>
@@ -12564,7 +11815,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="27.75">
+    <row r="5" spans="1:3" ht="29">
       <c r="A5" s="11" t="s">
         <v>35</v>
       </c>
@@ -12575,7 +11826,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="17">
       <c r="A6" s="11" t="s">
         <v>35</v>
       </c>
@@ -12586,7 +11837,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.5">
+    <row r="7" spans="1:3" ht="27">
       <c r="A7" s="11" t="s">
         <v>42</v>
       </c>
@@ -12597,7 +11848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="27.75">
+    <row r="8" spans="1:3" ht="17">
       <c r="A8" s="10" t="s">
         <v>44</v>
       </c>
@@ -12608,7 +11859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.5">
+    <row r="9" spans="1:3" ht="29">
       <c r="A9" s="10" t="s">
         <v>46</v>
       </c>
@@ -12619,7 +11870,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="17">
       <c r="A10" s="11" t="s">
         <v>146</v>
       </c>
@@ -12641,7 +11892,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.5">
+    <row r="12" spans="1:3" ht="27">
       <c r="A12" s="11" t="s">
         <v>59</v>
       </c>
@@ -12652,7 +11903,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="17">
       <c r="A13" s="11" t="s">
         <v>62</v>
       </c>
@@ -12675,25 +11926,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="89.125" customWidth="1"/>
+    <col min="2" max="2" width="89.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:249" ht="81">
+    <row r="1" spans="1:249" ht="70">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>889</v>
+        <v>854</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -12943,12 +12194,12 @@
       <c r="IN1" s="1"/>
       <c r="IO1" s="1"/>
     </row>
-    <row r="2" spans="1:249" ht="40.5">
+    <row r="2" spans="1:249" ht="42">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -13198,12 +12449,12 @@
       <c r="IN2" s="1"/>
       <c r="IO2" s="1"/>
     </row>
-    <row r="3" spans="1:249" ht="121.5">
+    <row r="3" spans="1:249" ht="112">
       <c r="A3" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>731</v>
+        <v>858</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -13453,12 +12704,12 @@
       <c r="IN3" s="1"/>
       <c r="IO3" s="1"/>
     </row>
-    <row r="4" spans="1:249" ht="108">
+    <row r="4" spans="1:249" ht="98">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -13720,20 +12971,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IR98"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="96" style="5" customWidth="1"/>
-    <col min="4" max="5" width="7.625" style="1" customWidth="1"/>
-    <col min="6" max="252" width="10.25" style="1" customWidth="1"/>
+    <col min="4" max="5" width="7.5703125" style="1" customWidth="1"/>
+    <col min="6" max="252" width="10.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -13750,7 +13001,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="54">
+    <row r="2" spans="1:4" ht="56">
       <c r="A2" s="66" t="s">
         <v>18</v>
       </c>
@@ -13764,7 +13015,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="67.5">
+    <row r="3" spans="1:4" ht="56">
       <c r="A3" s="66" t="s">
         <v>18</v>
       </c>
@@ -13778,7 +13029,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="67.5">
+    <row r="4" spans="1:4" ht="56">
       <c r="A4" s="66" t="s">
         <v>18</v>
       </c>
@@ -13792,7 +13043,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="67.5">
+    <row r="5" spans="1:4" ht="56">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -13806,7 +13057,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="81">
+    <row r="6" spans="1:4" ht="56">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -13828,158 +13079,158 @@
         <v>336</v>
       </c>
       <c r="C7" s="85" t="s">
-        <v>843</v>
+        <v>810</v>
       </c>
       <c r="D7" s="86" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="27">
+    <row r="8" spans="1:4" ht="28">
       <c r="A8" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B8" s="84" t="s">
         <v>331</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="27">
+    <row r="9" spans="1:4" ht="28">
       <c r="A9" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>577</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>579</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="40.5">
+    <row r="10" spans="1:4" ht="42">
       <c r="A10" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="27">
+    <row r="11" spans="1:4" ht="28">
       <c r="A11" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="27">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="27">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28">
       <c r="A13" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>582</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>584</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="54">
+    <row r="14" spans="1:4" ht="42">
       <c r="A14" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="40.5">
+    <row r="15" spans="1:4" ht="42">
       <c r="A15" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="27">
+    <row r="16" spans="1:4" ht="28">
       <c r="A16" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>846</v>
+        <v>813</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="27">
+    <row r="17" spans="1:4" ht="28">
       <c r="A17" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="27">
+    <row r="18" spans="1:4" ht="28">
       <c r="A18" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>333</v>
@@ -13987,41 +13238,41 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>827</v>
+        <v>797</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>828</v>
+        <v>798</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="27">
+    <row r="20" spans="1:4" ht="28">
       <c r="A20" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="27">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>765</v>
+        <v>738</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>771</v>
+        <v>744</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>333</v>
@@ -14035,35 +13286,35 @@
         <v>337</v>
       </c>
       <c r="C22" s="85" t="s">
-        <v>845</v>
+        <v>812</v>
       </c>
       <c r="D22" s="86" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="27">
+    <row r="23" spans="1:4" ht="28">
       <c r="A23" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B23" s="84" t="s">
         <v>331</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="40.5">
+    <row r="24" spans="1:4" ht="28">
       <c r="A24" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>333</v>
@@ -14071,49 +13322,49 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="27">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="28">
       <c r="A26" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="27">
+    <row r="27" spans="1:4" ht="28">
       <c r="A27" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="27">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="28">
       <c r="A28" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>333</v>
@@ -14121,77 +13372,77 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>832</v>
+        <v>802</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>833</v>
+        <v>803</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="86" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B31" s="86" t="s">
         <v>338</v>
       </c>
       <c r="C31" s="85" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D31" s="86" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="27">
+    <row r="32" spans="1:4" ht="28">
       <c r="A32" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B32" s="84" t="s">
         <v>331</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="67.5">
+    <row r="33" spans="1:4" ht="70">
       <c r="A33" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="C33" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="67.5">
+    <row r="34" spans="1:4" ht="56">
       <c r="A34" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>333</v>
@@ -14199,83 +13450,83 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="86" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B35" s="86" t="s">
         <v>339</v>
       </c>
       <c r="C35" s="85" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="D35" s="86" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="27">
+    <row r="36" spans="1:4" ht="28">
       <c r="A36" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B36" s="84" t="s">
         <v>331</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="27">
+    <row r="37" spans="1:4" ht="28">
       <c r="A37" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>600</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>602</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="40.5">
+    <row r="38" spans="1:4" ht="28">
       <c r="A38" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="27">
+    <row r="39" spans="1:4" ht="28">
       <c r="A39" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="27">
+    <row r="40" spans="1:4" ht="28">
       <c r="A40" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>605</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>607</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>333</v>
@@ -14283,41 +13534,41 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>829</v>
+        <v>799</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="40.5">
+    <row r="42" spans="1:4" ht="42">
       <c r="A42" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>756</v>
+        <v>729</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>755</v>
+        <v>728</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="27">
+    <row r="43" spans="1:4" ht="28">
       <c r="A43" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>796</v>
+        <v>766</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>830</v>
+        <v>800</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>333</v>
@@ -14331,13 +13582,13 @@
         <v>340</v>
       </c>
       <c r="C44" s="85" t="s">
-        <v>844</v>
+        <v>811</v>
       </c>
       <c r="D44" s="86" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="54">
+    <row r="45" spans="1:4" ht="42">
       <c r="A45" s="1" t="s">
         <v>340</v>
       </c>
@@ -14345,21 +13596,21 @@
         <v>331</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="27">
+    <row r="46" spans="1:4" ht="28">
       <c r="A46" s="1" t="s">
         <v>340</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>333</v>
@@ -14370,10 +13621,10 @@
         <v>340</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>333</v>
@@ -14387,7 +13638,7 @@
         <v>197</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>333</v>
@@ -14398,10 +13649,10 @@
         <v>340</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>333</v>
@@ -14415,7 +13666,7 @@
         <v>200</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>333</v>
@@ -14429,21 +13680,21 @@
         <v>204</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="40.5">
+    <row r="52" spans="1:5" ht="28">
       <c r="A52" s="1" t="s">
         <v>340</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>333</v>
@@ -14451,13 +13702,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="102" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B53" s="102" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C53" s="85" t="s">
-        <v>848</v>
+        <v>815</v>
       </c>
       <c r="D53" s="86" t="s">
         <v>335</v>
@@ -14465,55 +13716,55 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B54" s="84" t="s">
         <v>331</v>
       </c>
       <c r="C54" s="103" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="27">
+    <row r="55" spans="1:5" ht="28">
       <c r="A55" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="40.5">
+    <row r="56" spans="1:5" ht="28">
       <c r="A56" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="27">
+    <row r="57" spans="1:5" ht="28">
       <c r="A57" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B57" s="50" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C57" s="50" t="s">
-        <v>831</v>
+        <v>801</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>333</v>
@@ -14535,41 +13786,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.28515625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="43" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="43" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="43" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="43" customWidth="1"/>
-    <col min="5" max="5" width="87.25" style="45" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="43" customWidth="1"/>
+    <col min="5" max="5" width="87.28515625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="43" customWidth="1"/>
     <col min="7" max="7" width="33" style="64" customWidth="1"/>
     <col min="8" max="8" width="15" style="43" customWidth="1"/>
-    <col min="9" max="9" width="78.625" style="45" customWidth="1"/>
-    <col min="10" max="10" width="22.75" style="43" customWidth="1"/>
+    <col min="9" max="9" width="78.5703125" style="45" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" style="43" customWidth="1"/>
     <col min="11" max="11" width="33" style="43" customWidth="1"/>
-    <col min="12" max="12" width="19.375" style="58" customWidth="1"/>
-    <col min="13" max="13" width="18.125" style="58" customWidth="1"/>
-    <col min="14" max="14" width="93.75" style="45" customWidth="1"/>
-    <col min="15" max="15" width="60.625" style="45" customWidth="1"/>
-    <col min="16" max="16" width="13.875" style="43" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.875" style="43" customWidth="1"/>
-    <col min="18" max="18" width="11.75" style="43" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="54.25" style="43" customWidth="1"/>
-    <col min="20" max="16384" width="10.25" style="43"/>
+    <col min="12" max="12" width="19.42578125" style="58" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="58" customWidth="1"/>
+    <col min="14" max="14" width="93.7109375" style="45" customWidth="1"/>
+    <col min="15" max="15" width="60.5703125" style="45" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" style="43" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="54.28515625" style="43" customWidth="1"/>
+    <col min="20" max="16384" width="10.28515625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="45" customFormat="1" ht="41.25" customHeight="1">
       <c r="B1" s="45" t="s">
-        <v>882</v>
+        <v>847</v>
       </c>
       <c r="C1" s="46" t="s">
         <v>169</v>
@@ -14628,7 +13879,7 @@
         <v>167</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>883</v>
+        <v>848</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>168</v>
@@ -14640,52 +13891,52 @@
         <v>377</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="40.5">
+    <row r="3" spans="1:19" ht="28">
       <c r="C3" s="43" t="s">
-        <v>753</v>
+        <v>726</v>
       </c>
       <c r="D3" s="43" t="s">
         <v>384</v>
       </c>
       <c r="I3" s="45" t="s">
+        <v>860</v>
+      </c>
+      <c r="S3" s="43" t="s">
         <v>391</v>
       </c>
-      <c r="S3" s="43" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="121.5">
+    </row>
+    <row r="4" spans="1:19" ht="98">
       <c r="C4" s="43" t="s">
-        <v>754</v>
+        <v>727</v>
       </c>
       <c r="D4" s="43" t="s">
         <v>384</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>841</v>
+        <v>861</v>
       </c>
       <c r="F4" s="43">
         <v>1160</v>
       </c>
       <c r="I4" s="45" t="s">
-        <v>890</v>
+        <v>855</v>
       </c>
       <c r="S4" s="45" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="17">
       <c r="C5" s="43" t="s">
         <v>386</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>719</v>
+        <v>862</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="N5" s="45" t="s">
         <v>387</v>
@@ -14694,7 +13945,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="40.5">
+    <row r="6" spans="1:19" ht="28">
       <c r="A6" s="43" t="s">
         <v>171</v>
       </c>
@@ -14702,221 +13953,221 @@
         <v>14</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>385</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>721</v>
+        <v>863</v>
       </c>
       <c r="F6" s="43" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>834</v>
+        <v>804</v>
       </c>
       <c r="H6" s="43" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="I6" s="45" t="s">
+        <v>445</v>
+      </c>
+      <c r="J6" s="47" t="s">
+        <v>705</v>
+      </c>
+      <c r="K6" s="63" t="s">
         <v>446</v>
       </c>
-      <c r="J6" s="47" t="s">
-        <v>726</v>
-      </c>
-      <c r="K6" s="63" t="s">
-        <v>447</v>
-      </c>
       <c r="S6" s="43" t="s">
-        <v>722</v>
+        <v>864</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="C7" s="43" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D7" s="43" t="s">
+        <v>443</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>645</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>804</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>678</v>
+      </c>
+      <c r="I7" s="45" t="s">
         <v>444</v>
       </c>
-      <c r="E7" s="45" t="s">
-        <v>647</v>
-      </c>
-      <c r="G7" s="64" t="s">
-        <v>834</v>
-      </c>
-      <c r="H7" s="43" t="s">
-        <v>683</v>
-      </c>
-      <c r="I7" s="45" t="s">
-        <v>445</v>
-      </c>
       <c r="J7" s="47" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K7" s="63" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="L7" s="43"/>
       <c r="M7" s="63"/>
       <c r="N7" s="45" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="C8" s="43" t="s">
+        <v>657</v>
+      </c>
+      <c r="D8" s="43" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" ht="27">
-      <c r="C8" s="43" t="s">
+      <c r="E8" s="45" t="s">
+        <v>796</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>805</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>426</v>
+      </c>
+      <c r="I8" s="45" t="s">
+        <v>661</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>656</v>
+      </c>
+      <c r="K8" s="104" t="s">
+        <v>659</v>
+      </c>
+      <c r="L8" s="105" t="s">
         <v>660</v>
       </c>
-      <c r="D8" s="43" t="s">
-        <v>648</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>826</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>835</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>427</v>
-      </c>
-      <c r="I8" s="45" t="s">
-        <v>664</v>
-      </c>
-      <c r="J8" s="47" t="s">
-        <v>659</v>
-      </c>
-      <c r="K8" s="104" t="s">
-        <v>662</v>
-      </c>
-      <c r="L8" s="105" t="s">
-        <v>663</v>
-      </c>
       <c r="M8" s="63"/>
     </row>
-    <row r="9" spans="1:19" ht="40.5">
+    <row r="9" spans="1:19" ht="28">
       <c r="C9" s="43" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>665</v>
+        <v>865</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I9" s="45" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J9" s="47" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="K9" s="63" t="s">
+        <v>441</v>
+      </c>
+      <c r="L9" s="97" t="s">
         <v>442</v>
       </c>
-      <c r="L9" s="97" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="40.5">
+    </row>
+    <row r="10" spans="1:19" ht="42">
       <c r="C10" s="43" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D10" s="43" t="s">
         <v>389</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>649</v>
+        <v>866</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="I10" s="45" t="s">
-        <v>752</v>
+        <v>725</v>
       </c>
       <c r="J10" s="43" t="s">
-        <v>727</v>
+        <v>706</v>
       </c>
       <c r="N10" s="45" t="s">
-        <v>750</v>
+        <v>723</v>
       </c>
       <c r="O10" s="45" t="s">
-        <v>733</v>
+        <v>711</v>
       </c>
       <c r="S10" s="43" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="85.5">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="70">
       <c r="C11" s="43" t="s">
-        <v>791</v>
+        <v>761</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>709</v>
+        <v>868</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="G11" s="99" t="s">
-        <v>836</v>
+        <v>806</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>729</v>
+        <v>708</v>
       </c>
       <c r="I11" s="45" t="s">
-        <v>792</v>
+        <v>762</v>
       </c>
       <c r="J11" s="47" t="s">
-        <v>728</v>
+        <v>707</v>
       </c>
       <c r="K11" s="62" t="s">
-        <v>793</v>
+        <v>763</v>
       </c>
       <c r="L11" s="106" t="s">
-        <v>794</v>
+        <v>764</v>
       </c>
       <c r="M11" s="63"/>
       <c r="N11" s="45" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="O11" s="45" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="S11" s="43" t="s">
-        <v>795</v>
+        <v>765</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="C12" s="43" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>723</v>
+        <v>869</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="H12" s="43" t="s">
-        <v>766</v>
+        <v>739</v>
       </c>
       <c r="J12" s="47" t="s">
-        <v>730</v>
+        <v>709</v>
       </c>
       <c r="K12" s="62"/>
     </row>
@@ -14925,52 +14176,52 @@
         <v>172</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>725</v>
+        <v>870</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="J13" s="47" t="s">
-        <v>732</v>
+        <v>710</v>
       </c>
       <c r="K13" s="62"/>
     </row>
-    <row r="14" spans="1:19" ht="54">
+    <row r="14" spans="1:19" ht="56">
       <c r="A14" s="43" t="s">
         <v>173</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>883</v>
+        <v>848</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D14" s="43" t="s">
         <v>385</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>710</v>
+        <v>871</v>
       </c>
       <c r="F14" s="43">
         <v>210</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I14" s="45" t="s">
+        <v>437</v>
+      </c>
+      <c r="J14" s="47" t="s">
+        <v>419</v>
+      </c>
+      <c r="K14" s="62" t="s">
         <v>438</v>
-      </c>
-      <c r="J14" s="47" t="s">
-        <v>420</v>
-      </c>
-      <c r="K14" s="62" t="s">
-        <v>439</v>
       </c>
       <c r="L14" s="42" t="s">
         <v>364</v>
@@ -14983,754 +14234,754 @@
         <v>192</v>
       </c>
       <c r="S14" s="43" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="27">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="30">
       <c r="C15" s="43" t="s">
         <v>172</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>705</v>
+        <v>872</v>
       </c>
       <c r="F15" s="43">
         <v>210</v>
       </c>
       <c r="J15" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K15" s="63"/>
     </row>
-    <row r="16" spans="1:19" ht="40.5">
+    <row r="16" spans="1:19" ht="28">
       <c r="A16" s="43" t="s">
         <v>175</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>884</v>
+        <v>849</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D16" s="43" t="s">
         <v>385</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>702</v>
+        <v>873</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>859</v>
+        <v>825</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I16" s="45" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="J16" s="43" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="27">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="17">
       <c r="C17" s="43" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>697</v>
+        <v>874</v>
       </c>
       <c r="F17" s="43">
         <v>1200</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I17" s="45" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J17" s="43" t="s">
+        <v>425</v>
+      </c>
+      <c r="S17" s="109" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="84">
+      <c r="C18" s="43" t="s">
+        <v>398</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>397</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>875</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>826</v>
+      </c>
+      <c r="G18" s="64" t="s">
+        <v>824</v>
+      </c>
+      <c r="H18" s="43" t="s">
         <v>426</v>
       </c>
-      <c r="S17" s="109" t="s">
+      <c r="I18" s="45" t="s">
+        <v>467</v>
+      </c>
+      <c r="J18" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="N18" s="45" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" ht="94.5">
-      <c r="C18" s="43" t="s">
-        <v>399</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>398</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>704</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>860</v>
-      </c>
-      <c r="G18" s="64" t="s">
-        <v>858</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>427</v>
-      </c>
-      <c r="I18" s="45" t="s">
-        <v>469</v>
-      </c>
-      <c r="J18" s="47" t="s">
-        <v>425</v>
-      </c>
-      <c r="N18" s="45" t="s">
-        <v>703</v>
-      </c>
       <c r="S18" s="43" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="C19" s="43" t="s">
+        <v>473</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>694</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>695</v>
+      </c>
+      <c r="G19" s="99" t="s">
         <v>475</v>
       </c>
-      <c r="D19" s="43" t="s">
-        <v>700</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>701</v>
-      </c>
-      <c r="G19" s="99" t="s">
-        <v>477</v>
-      </c>
       <c r="H19" s="43" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I19" s="45" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J19" s="43" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L19" s="63" t="s">
+        <v>474</v>
+      </c>
+      <c r="M19" s="63" t="s">
         <v>476</v>
       </c>
-      <c r="M19" s="63" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="40.5">
+    </row>
+    <row r="20" spans="1:19" ht="30">
       <c r="C20" s="43" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>706</v>
+        <v>876</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="G20" s="99" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I20" s="45" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J20" s="43" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K20" s="63" t="s">
+        <v>452</v>
+      </c>
+      <c r="L20" s="98" t="s">
+        <v>453</v>
+      </c>
+      <c r="M20" s="98" t="s">
         <v>454</v>
       </c>
-      <c r="L20" s="98" t="s">
+      <c r="N20" s="45" t="s">
         <v>455</v>
       </c>
-      <c r="M20" s="98" t="s">
+      <c r="S20" s="43" t="s">
         <v>456</v>
       </c>
-      <c r="N20" s="45" t="s">
-        <v>457</v>
-      </c>
-      <c r="S20" s="43" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="40.5">
+    </row>
+    <row r="21" spans="1:19" ht="28">
       <c r="C21" s="43" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D21" s="43" t="s">
         <v>390</v>
       </c>
       <c r="E21" s="45" t="s">
-        <v>707</v>
+        <v>877</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="H21" s="43" t="s">
+        <v>650</v>
+      </c>
+      <c r="I21" s="45" t="s">
+        <v>652</v>
+      </c>
+      <c r="J21" s="43" t="s">
+        <v>429</v>
+      </c>
+      <c r="N21" s="45" t="s">
+        <v>651</v>
+      </c>
+      <c r="O21" s="45" t="s">
         <v>653</v>
       </c>
-      <c r="I21" s="45" t="s">
-        <v>655</v>
-      </c>
-      <c r="J21" s="43" t="s">
-        <v>430</v>
-      </c>
-      <c r="N21" s="45" t="s">
-        <v>654</v>
-      </c>
-      <c r="O21" s="45" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="27">
+    </row>
+    <row r="22" spans="1:19" ht="28">
       <c r="C22" s="43" t="s">
         <v>172</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="E22" s="45" t="s">
-        <v>716</v>
+        <v>878</v>
       </c>
       <c r="F22" s="43" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="J22" s="43" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="135">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="112">
       <c r="A23" s="43" t="s">
         <v>176</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>885</v>
+        <v>850</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D23" s="43" t="s">
         <v>385</v>
       </c>
       <c r="E23" s="45" t="s">
-        <v>853</v>
+        <v>879</v>
       </c>
       <c r="F23" s="43" t="s">
-        <v>849</v>
+        <v>816</v>
       </c>
       <c r="G23" s="64" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="H23" s="43" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I23" s="45" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J23" s="47" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K23" s="63"/>
       <c r="L23" s="97" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M23" s="63"/>
       <c r="N23" s="45" t="s">
+        <v>449</v>
+      </c>
+      <c r="O23" s="45" t="s">
         <v>450</v>
       </c>
-      <c r="O23" s="45" t="s">
+      <c r="P23" s="43" t="s">
         <v>451</v>
       </c>
-      <c r="P23" s="43" t="s">
-        <v>452</v>
-      </c>
       <c r="S23" s="45" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="14.25">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="C24" s="43" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E24" s="45" t="s">
-        <v>667</v>
+        <v>881</v>
       </c>
       <c r="F24" s="43" t="s">
-        <v>850</v>
+        <v>817</v>
       </c>
       <c r="H24" s="43" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="I24" s="45" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="J24" s="43" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K24" s="63"/>
       <c r="L24" s="42"/>
     </row>
-    <row r="25" spans="1:19" ht="14.25">
+    <row r="25" spans="1:19">
       <c r="C25" s="43" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="E25" s="45" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F25" s="43" t="s">
-        <v>850</v>
+        <v>817</v>
       </c>
       <c r="G25" s="64" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="H25" s="43" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="I25" s="45" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="J25" s="43" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="K25" s="63" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="L25" s="42"/>
       <c r="N25" s="45" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="27">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="C26" s="43" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>714</v>
+        <v>882</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>851</v>
+        <v>818</v>
       </c>
       <c r="H26" s="43" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I26" s="45" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="J26" s="47" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="K26" s="63"/>
       <c r="S26" s="43" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="27">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="28">
       <c r="C27" s="43" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>715</v>
+        <v>883</v>
       </c>
       <c r="F27" s="43" t="s">
-        <v>851</v>
+        <v>818</v>
       </c>
       <c r="H27" s="43" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I27" s="45" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="J27" s="43" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="K27" s="63"/>
     </row>
-    <row r="28" spans="1:19" ht="27">
+    <row r="28" spans="1:19" ht="28">
       <c r="C28" s="43" t="s">
         <v>172</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E28" s="45" t="s">
-        <v>744</v>
+        <v>884</v>
       </c>
       <c r="F28" s="43" t="s">
-        <v>852</v>
+        <v>819</v>
       </c>
       <c r="J28" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K28" s="63"/>
       <c r="L28" s="63"/>
     </row>
-    <row r="29" spans="1:19" ht="27">
+    <row r="29" spans="1:19" ht="30">
       <c r="A29" s="43" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B29" s="43" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D29" s="43" t="s">
         <v>385</v>
       </c>
       <c r="E29" s="45" t="s">
-        <v>745</v>
+        <v>885</v>
       </c>
       <c r="F29" s="43" t="s">
-        <v>748</v>
+        <v>721</v>
       </c>
       <c r="H29" s="43" t="s">
+        <v>412</v>
+      </c>
+      <c r="I29" s="45" t="s">
+        <v>471</v>
+      </c>
+      <c r="J29" s="43" t="s">
         <v>413</v>
       </c>
-      <c r="I29" s="45" t="s">
-        <v>473</v>
-      </c>
-      <c r="J29" s="43" t="s">
-        <v>414</v>
-      </c>
       <c r="S29" s="43" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="14.25">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="C30" s="43" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E30" s="45" t="s">
-        <v>735</v>
+        <v>886</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>734</v>
+        <v>712</v>
       </c>
       <c r="G30" s="64">
         <v>500</v>
       </c>
       <c r="H30" s="43" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I30" s="45" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J30" s="43" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K30" s="62" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L30" s="98" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="M30" s="98" t="s">
+        <v>460</v>
+      </c>
+      <c r="N30" s="45" t="s">
+        <v>461</v>
+      </c>
+      <c r="S30" s="43" t="s">
         <v>462</v>
       </c>
-      <c r="N30" s="45" t="s">
-        <v>463</v>
-      </c>
-      <c r="S30" s="43" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="40.5">
+    </row>
+    <row r="31" spans="1:19" ht="28">
       <c r="C31" s="43" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>736</v>
+        <v>713</v>
       </c>
       <c r="E31" s="45" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
       <c r="G31" s="64" t="s">
-        <v>834</v>
+        <v>804</v>
       </c>
       <c r="H31" s="43" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I31" s="45" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="J31" s="43" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="28">
+      <c r="C32" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>402</v>
+      </c>
+      <c r="E32" s="45" t="s">
+        <v>715</v>
+      </c>
+      <c r="F32" s="43" t="s">
+        <v>712</v>
+      </c>
+      <c r="G32" s="64" t="s">
+        <v>807</v>
+      </c>
+      <c r="H32" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="I32" s="45" t="s">
+        <v>784</v>
+      </c>
+      <c r="J32" s="43" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" ht="27">
-      <c r="C32" s="43" t="s">
-        <v>404</v>
-      </c>
-      <c r="D32" s="43" t="s">
-        <v>403</v>
-      </c>
-      <c r="E32" s="45" t="s">
-        <v>738</v>
-      </c>
-      <c r="F32" s="43" t="s">
-        <v>734</v>
-      </c>
-      <c r="G32" s="64" t="s">
-        <v>837</v>
-      </c>
-      <c r="H32" s="43" t="s">
-        <v>415</v>
-      </c>
-      <c r="I32" s="45" t="s">
-        <v>814</v>
-      </c>
-      <c r="J32" s="43" t="s">
-        <v>435</v>
-      </c>
       <c r="K32" s="62" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L32" s="63"/>
       <c r="M32" s="63" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="27">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="C33" s="43" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D33" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="E33" s="45" t="s">
+        <v>716</v>
+      </c>
+      <c r="G33" s="64" t="s">
+        <v>804</v>
+      </c>
+      <c r="H33" s="43" t="s">
+        <v>412</v>
+      </c>
+      <c r="I33" s="45" t="s">
+        <v>654</v>
+      </c>
+      <c r="J33" s="43" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="42">
+      <c r="C34" s="43" t="s">
+        <v>719</v>
+      </c>
+      <c r="D34" s="43" t="s">
         <v>404</v>
       </c>
-      <c r="E33" s="45" t="s">
-        <v>739</v>
-      </c>
-      <c r="G33" s="64" t="s">
-        <v>834</v>
-      </c>
-      <c r="H33" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="I33" s="45" t="s">
-        <v>657</v>
-      </c>
-      <c r="J33" s="43" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="40.5">
-      <c r="C34" s="43" t="s">
-        <v>742</v>
-      </c>
-      <c r="D34" s="43" t="s">
+      <c r="E34" s="45" t="s">
+        <v>718</v>
+      </c>
+      <c r="G34" s="64" t="s">
+        <v>804</v>
+      </c>
+      <c r="H34" s="43" t="s">
+        <v>412</v>
+      </c>
+      <c r="I34" s="45" t="s">
+        <v>655</v>
+      </c>
+      <c r="J34" s="43" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="28">
+      <c r="C35" s="43" t="s">
+        <v>432</v>
+      </c>
+      <c r="D35" s="43" t="s">
         <v>405</v>
       </c>
-      <c r="E34" s="45" t="s">
-        <v>741</v>
-      </c>
-      <c r="G34" s="64" t="s">
-        <v>834</v>
-      </c>
-      <c r="H34" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="I34" s="45" t="s">
-        <v>658</v>
-      </c>
-      <c r="J34" s="43" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="27">
-      <c r="C35" s="43" t="s">
-        <v>433</v>
-      </c>
-      <c r="D35" s="43" t="s">
-        <v>406</v>
-      </c>
       <c r="E35" s="45" t="s">
-        <v>743</v>
+        <v>887</v>
       </c>
       <c r="F35" s="43" t="s">
-        <v>734</v>
+        <v>712</v>
       </c>
       <c r="G35" s="64" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H35" s="43" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I35" s="45" t="s">
-        <v>749</v>
+        <v>722</v>
       </c>
       <c r="J35" s="43" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K35" s="43" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="27">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="30">
       <c r="C36" s="43" t="s">
         <v>172</v>
       </c>
       <c r="D36" s="43" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E36" s="45" t="s">
-        <v>746</v>
+        <v>888</v>
       </c>
       <c r="F36" s="43" t="s">
-        <v>747</v>
+        <v>720</v>
       </c>
       <c r="I36" s="45" t="s">
-        <v>751</v>
+        <v>724</v>
       </c>
       <c r="J36" s="43" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="27">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="30">
       <c r="A37" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>848</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="D37" s="43" t="s">
         <v>407</v>
       </c>
-      <c r="B37" s="43" t="s">
-        <v>883</v>
-      </c>
-      <c r="C37" s="43" t="s">
-        <v>519</v>
-      </c>
-      <c r="D37" s="43" t="s">
-        <v>408</v>
-      </c>
       <c r="E37" s="45" t="s">
-        <v>783</v>
+        <v>889</v>
       </c>
       <c r="F37" s="43">
         <v>170</v>
       </c>
       <c r="G37" s="64" t="s">
-        <v>838</v>
+        <v>808</v>
       </c>
       <c r="H37" s="43" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="I37" s="45" t="s">
-        <v>784</v>
+        <v>754</v>
       </c>
       <c r="J37" s="43" t="s">
-        <v>786</v>
+        <v>756</v>
       </c>
       <c r="L37" s="96" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="27">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="28">
       <c r="C38" s="43" t="s">
-        <v>821</v>
+        <v>791</v>
       </c>
       <c r="D38" s="43" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E38" s="45" t="s">
-        <v>767</v>
+        <v>740</v>
       </c>
       <c r="G38" s="64" t="s">
-        <v>834</v>
+        <v>804</v>
       </c>
       <c r="H38" s="43" t="s">
-        <v>785</v>
+        <v>755</v>
       </c>
       <c r="I38" s="45" t="s">
-        <v>770</v>
+        <v>743</v>
       </c>
       <c r="J38" s="43" t="s">
-        <v>787</v>
+        <v>757</v>
       </c>
       <c r="L38" s="42" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="40.5">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="28">
       <c r="C39" s="43" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D39" s="43" t="s">
-        <v>765</v>
+        <v>738</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>772</v>
+        <v>745</v>
       </c>
       <c r="H39" s="43" t="s">
-        <v>789</v>
+        <v>759</v>
       </c>
       <c r="I39" s="45" t="s">
-        <v>773</v>
+        <v>746</v>
       </c>
       <c r="J39" s="43" t="s">
-        <v>788</v>
+        <v>758</v>
       </c>
       <c r="L39" s="42" t="s">
-        <v>774</v>
+        <v>890</v>
       </c>
       <c r="S39" s="43" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="54">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="70">
       <c r="C40" s="43" t="s">
-        <v>775</v>
+        <v>747</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>764</v>
+        <v>737</v>
       </c>
       <c r="E40" s="45" t="s">
-        <v>840</v>
+        <v>891</v>
       </c>
       <c r="F40" s="43">
         <v>200</v>
       </c>
       <c r="G40" s="64" t="s">
-        <v>839</v>
+        <v>809</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>790</v>
+        <v>760</v>
       </c>
       <c r="I40" s="45" t="s">
-        <v>781</v>
+        <v>753</v>
       </c>
       <c r="J40" s="43" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="K40" s="43" t="s">
-        <v>777</v>
+        <v>749</v>
       </c>
       <c r="L40" s="63" t="s">
-        <v>778</v>
+        <v>750</v>
       </c>
       <c r="O40" s="45" t="s">
-        <v>779</v>
+        <v>751</v>
       </c>
       <c r="S40" s="43" t="s">
-        <v>780</v>
+        <v>752</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -15738,33 +14989,33 @@
         <v>172</v>
       </c>
       <c r="D41" s="43" t="s">
-        <v>776</v>
+        <v>748</v>
       </c>
       <c r="E41" s="45" t="s">
-        <v>782</v>
+        <v>892</v>
       </c>
       <c r="F41" s="43">
         <v>160</v>
       </c>
       <c r="J41" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>851</v>
+      </c>
+      <c r="C42" s="43" t="s">
         <v>410</v>
       </c>
-      <c r="B42" s="43" t="s">
-        <v>886</v>
-      </c>
-      <c r="C42" s="43" t="s">
-        <v>411</v>
-      </c>
       <c r="D42" s="43" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E42" s="45" t="s">
-        <v>842</v>
+        <v>893</v>
       </c>
       <c r="F42" s="43">
         <v>1160</v>
@@ -15781,7 +15032,7 @@
     <hyperlink ref="L30" r:id="rId5"/>
     <hyperlink ref="L8" r:id="rId6"/>
     <hyperlink ref="L38" r:id="rId7"/>
-    <hyperlink ref="L39" r:id="rId8"/>
+    <hyperlink ref="L39" r:id="rId8" display="http://www.osaka-info.jp/ch_t/ofc/201101/"/>
   </hyperlinks>
   <pageMargins left="0.70000004768371582" right="0.70000004768371582" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <extLst>
@@ -15793,21 +15044,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="129.625" style="90" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="129.5703125" style="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="14">
       <c r="A1" s="52" t="s">
         <v>198</v>
       </c>
@@ -15821,7 +15072,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="14">
       <c r="A2" s="1" t="s">
         <v>194</v>
       </c>
@@ -15835,26 +15086,26 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="27">
+    <row r="3" spans="1:4" ht="28">
       <c r="A3" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="27">
+    </row>
+    <row r="4" spans="1:4" ht="14">
       <c r="A4" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>200</v>
@@ -15863,12 +15114,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="14">
       <c r="A5" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>204</v>
@@ -15877,341 +15128,341 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="27">
+    <row r="6" spans="1:4" ht="14">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14">
       <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14">
       <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>205</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="27">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28">
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14">
       <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14">
       <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>206</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="27">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14">
       <c r="A14" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="27">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28">
       <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14">
       <c r="A16" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>209</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14">
       <c r="A17" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14">
       <c r="A18" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14">
       <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14">
       <c r="A21" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14">
       <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="5" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14">
       <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="5" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14">
       <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="5" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="14">
       <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14">
       <c r="A26" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="5" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14">
       <c r="A27" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="5" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="14">
       <c r="A28" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="14">
       <c r="A29" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>210</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="14">
       <c r="A30" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="107" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="D30" s="108" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
   </sheetData>
@@ -16226,21 +15477,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="54.625" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="54">
+    <row r="1" spans="1:4" ht="56">
       <c r="A1" s="67" t="s">
         <v>167</v>
       </c>
@@ -16248,66 +15499,66 @@
         <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="67.5">
+    <row r="2" spans="1:4" ht="56">
       <c r="A2" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>799</v>
+        <v>769</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="162">
+    <row r="3" spans="1:4" ht="154">
       <c r="A3" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>757</v>
+        <v>730</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>798</v>
+        <v>768</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="94.5">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="70">
       <c r="A4" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>800</v>
+        <v>770</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="71.25">
+    <row r="5" spans="1:4" ht="66">
       <c r="A5" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>758</v>
+        <v>731</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="54">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="42">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -16318,77 +15569,77 @@
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="81">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="70">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="67.5">
+    </row>
+    <row r="8" spans="1:4" ht="70">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="100" t="s">
-        <v>801</v>
+        <v>771</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>802</v>
+        <v>772</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="111.75">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="92">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="107" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="C9" s="90" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="42.75">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="168">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="118">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="40.5">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="42">
       <c r="A12" s="91" t="s">
         <v>175</v>
       </c>
@@ -16396,314 +15647,314 @@
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>810</v>
+        <v>780</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="70.5">
+    <row r="13" spans="1:4" ht="54">
       <c r="A13" s="91" t="s">
         <v>175</v>
       </c>
       <c r="B13" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C13" s="90" t="s">
-        <v>763</v>
+        <v>736</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="56.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="43">
       <c r="A14" s="91" t="s">
         <v>175</v>
       </c>
       <c r="B14" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C14" s="90" t="s">
-        <v>803</v>
+        <v>773</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="81">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="84">
       <c r="A15" s="91" t="s">
         <v>175</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="70.5">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="53">
       <c r="A16" s="91" t="s">
         <v>175</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>761</v>
+        <v>734</v>
       </c>
       <c r="C16" s="90" t="s">
-        <v>762</v>
+        <v>735</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="40.5">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="42">
       <c r="A17" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>807</v>
+        <v>777</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>804</v>
+        <v>774</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="121.5">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="112">
       <c r="A18" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>805</v>
+        <v>775</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="108">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="98">
       <c r="A19" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B19" s="100" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>808</v>
+        <v>778</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="40.5">
+    <row r="20" spans="1:4" ht="42">
       <c r="A20" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>806</v>
+        <v>776</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="67.5">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="56">
       <c r="A21" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="54">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="42">
       <c r="A22" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>809</v>
+        <v>779</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="67.5">
+    <row r="23" spans="1:4" ht="56">
       <c r="A23" s="44" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>811</v>
+        <v>781</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="162">
+    <row r="24" spans="1:4" ht="140">
       <c r="A24" s="44" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B24" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C24" s="110" t="s">
-        <v>872</v>
+        <v>837</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="135">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="126">
       <c r="A25" s="44" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="42">
+      <c r="A26" s="44" t="s">
+        <v>504</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="28">
+      <c r="A27" s="44" t="s">
+        <v>504</v>
+      </c>
+      <c r="B27" s="44" t="s">
         <v>510</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="40.5">
-      <c r="A26" s="44" t="s">
-        <v>506</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="40.5">
-      <c r="A27" s="44" t="s">
-        <v>506</v>
-      </c>
-      <c r="B27" s="44" t="s">
-        <v>512</v>
-      </c>
       <c r="C27" s="110" t="s">
-        <v>815</v>
+        <v>785</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="81">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="84">
       <c r="A28" s="44" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="42">
+      <c r="A29" s="44" t="s">
+        <v>504</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>787</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>788</v>
+      </c>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="77">
+      <c r="A30" s="44" t="s">
+        <v>514</v>
+      </c>
+      <c r="B30" s="44" t="s">
         <v>515</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="40.5">
-      <c r="A29" s="44" t="s">
-        <v>506</v>
-      </c>
-      <c r="B29" s="50" t="s">
-        <v>817</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>818</v>
-      </c>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" ht="95.25">
-      <c r="A30" s="44" t="s">
-        <v>516</v>
-      </c>
-      <c r="B30" s="44" t="s">
-        <v>517</v>
-      </c>
       <c r="C30" s="111" t="s">
-        <v>893</v>
+        <v>857</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="69.75">
+    <row r="31" spans="1:4" ht="54">
       <c r="A31" s="44" t="s">
+        <v>514</v>
+      </c>
+      <c r="B31" s="44" t="s">
         <v>516</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="C31" s="90" t="s">
+        <v>790</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="55">
+      <c r="A32" s="44" t="s">
+        <v>514</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>792</v>
+      </c>
+      <c r="C32" s="90" t="s">
+        <v>793</v>
+      </c>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" ht="98">
+      <c r="A33" s="44" t="s">
+        <v>514</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="43">
+      <c r="A34" s="44" t="s">
+        <v>520</v>
+      </c>
+      <c r="B34" s="91" t="s">
         <v>518</v>
       </c>
-      <c r="C31" s="90" t="s">
-        <v>820</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="70.5">
-      <c r="A32" s="44" t="s">
-        <v>516</v>
-      </c>
-      <c r="B32" s="44" t="s">
-        <v>822</v>
-      </c>
-      <c r="C32" s="90" t="s">
-        <v>823</v>
-      </c>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" ht="108">
-      <c r="A33" s="44" t="s">
-        <v>516</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="54.75">
-      <c r="A34" s="44" t="s">
-        <v>522</v>
-      </c>
-      <c r="B34" s="91" t="s">
-        <v>520</v>
-      </c>
       <c r="C34" s="101" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -16718,39 +15969,39 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="9" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="9" customWidth="1"/>
     <col min="3" max="3" width="78" style="21" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="49.375" style="21" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="9" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="5.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.25" style="9" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="49.42578125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.28515625" style="9" customWidth="1"/>
     <col min="10" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="135.75">
+    <row r="1" spans="1:6" ht="112">
       <c r="A1" s="21" t="s">
         <v>348</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>861</v>
+        <v>827</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14">
       <c r="A2" s="21" t="s">
         <v>348</v>
       </c>
@@ -16758,10 +16009,10 @@
         <v>120</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="71.25">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="68">
       <c r="A3" s="21" t="s">
         <v>348</v>
       </c>
@@ -16772,7 +16023,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="69">
+    <row r="4" spans="1:6" ht="70">
       <c r="A4" s="21" t="s">
         <v>348</v>
       </c>
@@ -16784,7 +16035,7 @@
       </c>
       <c r="D4" s="38"/>
     </row>
-    <row r="5" spans="1:6" ht="81.75">
+    <row r="5" spans="1:6" ht="56">
       <c r="A5" s="21" t="s">
         <v>348</v>
       </c>
@@ -16796,7 +16047,7 @@
       </c>
       <c r="D5" s="38"/>
     </row>
-    <row r="6" spans="1:6" ht="68.25">
+    <row r="6" spans="1:6" ht="50">
       <c r="A6" s="21" t="s">
         <v>348</v>
       </c>
@@ -16804,10 +16055,10 @@
         <v>122</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="27.75">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="26">
       <c r="A7" s="21" t="s">
         <v>348</v>
       </c>
@@ -16819,7 +16070,7 @@
       </c>
       <c r="D7" s="42"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="17">
       <c r="A8" s="21" t="s">
         <v>348</v>
       </c>
@@ -16830,7 +16081,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="139.5">
+    <row r="9" spans="1:6" ht="105">
       <c r="A9" s="21" t="s">
         <v>348</v>
       </c>
@@ -16838,11 +16089,11 @@
         <v>121</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>865</v>
+        <v>831</v>
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="97.5">
+    <row r="10" spans="1:6" ht="62">
       <c r="A10" s="21" t="s">
         <v>348</v>
       </c>
@@ -16850,11 +16101,11 @@
         <v>121</v>
       </c>
       <c r="C10" s="115" t="s">
-        <v>867</v>
+        <v>832</v>
       </c>
       <c r="D10" s="92"/>
     </row>
-    <row r="11" spans="1:6" ht="141.75">
+    <row r="11" spans="1:6" ht="112">
       <c r="A11" s="21" t="s">
         <v>348</v>
       </c>
@@ -16866,7 +16117,7 @@
       </c>
       <c r="D11" s="30"/>
     </row>
-    <row r="12" spans="1:6" ht="122.25">
+    <row r="12" spans="1:6" ht="113">
       <c r="A12" s="21" t="s">
         <v>348</v>
       </c>
@@ -16877,7 +16128,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="81.75">
+    <row r="13" spans="1:6" ht="71">
       <c r="A13" s="22" t="s">
         <v>349</v>
       </c>
@@ -16890,7 +16141,7 @@
       <c r="D13" s="39"/>
       <c r="F13" s="40"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="14">
       <c r="B14" s="19" t="s">
         <v>347</v>
       </c>
@@ -16898,7 +16149,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="39.950000000000003" customHeight="1">
+    <row r="15" spans="1:6" ht="40" customHeight="1">
       <c r="A15" s="89" t="s">
         <v>349</v>
       </c>
@@ -16906,10 +16157,10 @@
         <v>4</v>
       </c>
       <c r="C15" s="114" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="192">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="154">
       <c r="A16" s="89" t="s">
         <v>350</v>
       </c>
@@ -16917,11 +16168,11 @@
         <v>148</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>873</v>
+        <v>838</v>
       </c>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="27.75">
+    <row r="17" spans="1:8" ht="29">
       <c r="A17" s="22" t="s">
         <v>350</v>
       </c>
@@ -16932,7 +16183,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="17">
       <c r="A18" s="22" t="s">
         <v>350</v>
       </c>
@@ -16943,7 +16194,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="56.25">
+    <row r="19" spans="1:8" ht="54">
       <c r="A19" s="22" t="s">
         <v>350</v>
       </c>
@@ -16955,19 +16206,19 @@
       </c>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="54.75">
+    <row r="20" spans="1:8" ht="41">
       <c r="A20" s="22" t="s">
         <v>350</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>870</v>
+        <v>835</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>871</v>
+        <v>836</v>
       </c>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="97.5">
+    <row r="21" spans="1:8" ht="67">
       <c r="A21" s="61" t="s">
         <v>223</v>
       </c>
@@ -16975,11 +16226,11 @@
         <v>116</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" ht="17">
       <c r="A22" s="61" t="s">
         <v>223</v>
       </c>
@@ -16995,7 +16246,7 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="27.75">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="61" t="s">
         <v>223</v>
       </c>
@@ -17003,13 +16254,13 @@
         <v>124</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>868</v>
+        <v>833</v>
       </c>
       <c r="D23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:8" ht="95.25">
+    <row r="24" spans="1:8" ht="74">
       <c r="A24" s="93" t="s">
         <v>223</v>
       </c>
@@ -17023,7 +16274,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="162.75">
+    <row r="25" spans="1:8" ht="140">
       <c r="A25" s="61" t="s">
         <v>223</v>
       </c>
@@ -17034,7 +16285,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="54.75">
+    <row r="26" spans="1:8" ht="56">
       <c r="A26" s="61" t="s">
         <v>223</v>
       </c>
@@ -17045,7 +16296,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" ht="14">
       <c r="A27" s="61" t="s">
         <v>223</v>
       </c>
@@ -17056,7 +16307,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="54.75">
+    <row r="28" spans="1:8" ht="57">
       <c r="A28" s="61" t="s">
         <v>223</v>
       </c>
@@ -17067,7 +16318,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" ht="17">
       <c r="A29" s="61" t="s">
         <v>223</v>
       </c>
@@ -17078,7 +16329,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="54.75">
+    <row r="30" spans="1:8" ht="57">
       <c r="A30" s="61" t="s">
         <v>223</v>
       </c>
@@ -17089,7 +16340,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="27.75">
+    <row r="31" spans="1:8" ht="17">
       <c r="A31" s="61" t="s">
         <v>223</v>
       </c>
@@ -17101,7 +16352,7 @@
       </c>
       <c r="D31" s="38"/>
     </row>
-    <row r="32" spans="1:8" ht="41.25">
+    <row r="32" spans="1:8" ht="43">
       <c r="A32" s="61" t="s">
         <v>223</v>
       </c>
@@ -17113,7 +16364,7 @@
       </c>
       <c r="D32" s="38"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" ht="17">
       <c r="A33" s="61" t="s">
         <v>223</v>
       </c>
@@ -17124,7 +16375,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="54.75">
+    <row r="34" spans="1:4" ht="57">
       <c r="A34" s="61" t="s">
         <v>223</v>
       </c>
@@ -17135,7 +16386,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="41.25">
+    <row r="35" spans="1:4" ht="29">
       <c r="A35" s="61" t="s">
         <v>223</v>
       </c>
@@ -17146,7 +16397,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" ht="17">
       <c r="A36" s="61" t="s">
         <v>223</v>
       </c>
@@ -17157,7 +16408,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="41.25">
+    <row r="37" spans="1:4" ht="29">
       <c r="A37" s="61" t="s">
         <v>223</v>
       </c>
@@ -17168,7 +16419,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="27.75">
+    <row r="38" spans="1:4" ht="29">
       <c r="A38" s="61" t="s">
         <v>223</v>
       </c>
@@ -17179,7 +16430,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" ht="17">
       <c r="A39" s="61" t="s">
         <v>223</v>
       </c>
@@ -17190,7 +16441,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="42.75">
+    <row r="40" spans="1:4" ht="43">
       <c r="A40" s="61" t="s">
         <v>223</v>
       </c>
@@ -17201,7 +16452,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" ht="17">
       <c r="A41" s="61" t="s">
         <v>223</v>
       </c>
@@ -17213,7 +16464,7 @@
       </c>
       <c r="D41" s="38"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" ht="17">
       <c r="A42" s="61" t="s">
         <v>223</v>
       </c>
@@ -17224,7 +16475,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="68.25">
+    <row r="43" spans="1:4" ht="71">
       <c r="A43" s="61" t="s">
         <v>223</v>
       </c>
@@ -17235,7 +16486,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="27.75">
+    <row r="44" spans="1:4" ht="29">
       <c r="A44" s="61" t="s">
         <v>223</v>
       </c>
@@ -17258,21 +16509,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="84.25" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="84.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1">
+    <row r="1" spans="1:7" s="9" customFormat="1" ht="17">
       <c r="A1" s="7" t="s">
         <v>67</v>
       </c>
@@ -17284,7 +16535,7 @@
       </c>
       <c r="E1" s="42"/>
     </row>
-    <row r="2" spans="1:7" s="9" customFormat="1">
+    <row r="2" spans="1:7" s="9" customFormat="1" ht="17">
       <c r="A2" s="7" t="s">
         <v>67</v>
       </c>
@@ -17295,7 +16546,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="9" customFormat="1">
+    <row r="3" spans="1:7" s="9" customFormat="1" ht="17">
       <c r="A3" s="7" t="s">
         <v>67</v>
       </c>
@@ -17306,7 +16557,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="9" customFormat="1" ht="27.75">
+    <row r="4" spans="1:7" s="9" customFormat="1" ht="17">
       <c r="A4" s="7" t="s">
         <v>67</v>
       </c>
@@ -17318,7 +16569,7 @@
       </c>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:7" s="9" customFormat="1">
+    <row r="5" spans="1:7" s="9" customFormat="1" ht="17">
       <c r="A5" s="7" t="s">
         <v>67</v>
       </c>
@@ -17329,7 +16580,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="9" customFormat="1" ht="27.75">
+    <row r="6" spans="1:7" s="9" customFormat="1" ht="17">
       <c r="A6" s="7" t="s">
         <v>67</v>
       </c>
@@ -17340,7 +16591,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="9" customFormat="1">
+    <row r="7" spans="1:7" s="9" customFormat="1" ht="17">
       <c r="A7" s="7" t="s">
         <v>67</v>
       </c>
@@ -17351,7 +16602,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="9" customFormat="1" ht="27.75">
+    <row r="8" spans="1:7" s="9" customFormat="1" ht="17">
       <c r="A8" s="7" t="s">
         <v>67</v>
       </c>
@@ -17362,7 +16613,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="9" customFormat="1">
+    <row r="9" spans="1:7" s="9" customFormat="1" ht="17">
       <c r="A9" s="7" t="s">
         <v>67</v>
       </c>
@@ -17373,7 +16624,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="9" customFormat="1" ht="54.75">
+    <row r="10" spans="1:7" s="9" customFormat="1" ht="38">
       <c r="A10" s="7" t="s">
         <v>67</v>
       </c>
@@ -17385,13 +16636,13 @@
       </c>
       <c r="E10" s="23"/>
     </row>
-    <row r="11" spans="1:7" s="9" customFormat="1">
+    <row r="11" spans="1:7" s="9" customFormat="1" ht="17">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="24"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:7" s="9" customFormat="1">
+    <row r="12" spans="1:7" s="9" customFormat="1" ht="17">
       <c r="A12" s="7" t="s">
         <v>67</v>
       </c>
@@ -17404,7 +16655,7 @@
       <c r="D12" s="54"/>
       <c r="E12" s="42"/>
     </row>
-    <row r="13" spans="1:7" s="9" customFormat="1">
+    <row r="13" spans="1:7" s="9" customFormat="1" ht="17">
       <c r="A13" s="7" t="s">
         <v>67</v>
       </c>
@@ -17415,7 +16666,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="9" customFormat="1">
+    <row r="14" spans="1:7" s="9" customFormat="1" ht="17">
       <c r="A14" s="7" t="s">
         <v>67</v>
       </c>
@@ -17426,7 +16677,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="9" customFormat="1" ht="122.25">
+    <row r="15" spans="1:7" s="9" customFormat="1" ht="110">
       <c r="A15" s="7" t="s">
         <v>67</v>
       </c>
@@ -17439,7 +16690,7 @@
       <c r="D15" s="54"/>
       <c r="E15" s="42"/>
     </row>
-    <row r="16" spans="1:7" s="9" customFormat="1" ht="27.75">
+    <row r="16" spans="1:7" s="9" customFormat="1" ht="26">
       <c r="A16" s="7" t="s">
         <v>67</v>
       </c>
@@ -17452,7 +16703,7 @@
       <c r="D16" s="54"/>
       <c r="E16" s="42"/>
     </row>
-    <row r="17" spans="1:3" s="9" customFormat="1" ht="27.75">
+    <row r="17" spans="1:3" s="9" customFormat="1" ht="29">
       <c r="A17" s="7" t="s">
         <v>85</v>
       </c>
@@ -17463,7 +16714,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="9" customFormat="1" ht="27.75">
+    <row r="18" spans="1:3" s="9" customFormat="1" ht="17">
       <c r="A18" s="7" t="s">
         <v>85</v>
       </c>
@@ -17474,7 +16725,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="9" customFormat="1" ht="27.75">
+    <row r="19" spans="1:3" s="9" customFormat="1" ht="29">
       <c r="A19" s="7" t="s">
         <v>85</v>
       </c>
@@ -17482,10 +16733,10 @@
         <v>96</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="9" customFormat="1">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="9" customFormat="1" ht="17">
       <c r="A20" s="8" t="s">
         <v>68</v>
       </c>
@@ -17496,7 +16747,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="9" customFormat="1">
+    <row r="21" spans="1:3" s="9" customFormat="1" ht="17">
       <c r="A21" s="8" t="s">
         <v>68</v>
       </c>
@@ -17507,7 +16758,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="9" customFormat="1">
+    <row r="22" spans="1:3" s="9" customFormat="1" ht="17">
       <c r="A22" s="8" t="s">
         <v>68</v>
       </c>
@@ -17518,7 +16769,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="9" customFormat="1">
+    <row r="23" spans="1:3" s="9" customFormat="1" ht="17">
       <c r="A23" s="8" t="s">
         <v>68</v>
       </c>
@@ -17529,7 +16780,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="9" customFormat="1">
+    <row r="24" spans="1:3" s="9" customFormat="1" ht="17">
       <c r="A24" s="8" t="s">
         <v>68</v>
       </c>
@@ -17540,7 +16791,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="9" customFormat="1">
+    <row r="25" spans="1:3" s="9" customFormat="1" ht="17">
       <c r="A25" s="8" t="s">
         <v>68</v>
       </c>
@@ -17562,7 +16813,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="9" customFormat="1">
+    <row r="27" spans="1:3" s="9" customFormat="1" ht="17">
       <c r="A27" s="8" t="s">
         <v>68</v>
       </c>
@@ -17573,7 +16824,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="9" customFormat="1">
+    <row r="28" spans="1:3" s="9" customFormat="1" ht="17">
       <c r="A28" s="8" t="s">
         <v>68</v>
       </c>
@@ -17584,7 +16835,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="9" customFormat="1">
+    <row r="29" spans="1:3" s="9" customFormat="1" ht="17">
       <c r="A29" s="8" t="s">
         <v>68</v>
       </c>
@@ -17607,20 +16858,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="46.75" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="9" customFormat="1">
+    <row r="1" spans="1:2" s="9" customFormat="1" ht="17">
       <c r="A1" s="15" t="s">
         <v>126</v>
       </c>
@@ -17628,7 +16879,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1">
+    <row r="2" spans="1:2" s="9" customFormat="1" ht="17">
       <c r="A2" s="15" t="s">
         <v>128</v>
       </c>
@@ -17636,7 +16887,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" ht="30">
+    <row r="3" spans="1:2" s="9" customFormat="1" ht="17">
       <c r="A3" s="15" t="s">
         <v>130</v>
       </c>
@@ -17644,15 +16895,15 @@
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" ht="63">
+    <row r="4" spans="1:2" s="9" customFormat="1" ht="38">
       <c r="A4" s="15" t="s">
         <v>131</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" ht="27.75">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="9" customFormat="1" ht="29">
       <c r="A5" s="15" t="s">
         <v>132</v>
       </c>
@@ -17660,7 +16911,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" ht="27.75">
+    <row r="6" spans="1:2" s="9" customFormat="1" ht="26">
       <c r="A6" s="15" t="s">
         <v>136</v>
       </c>
@@ -17668,7 +16919,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="9" customFormat="1" ht="27.75">
+    <row r="7" spans="1:2" s="9" customFormat="1" ht="24">
       <c r="A7" s="18" t="s">
         <v>134</v>
       </c>
